--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="11505"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1017">
   <si>
     <t>NO.</t>
   </si>
@@ -3067,16 +3072,19 @@
   </si>
   <si>
     <t>080501657479</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3367,6 +3375,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3413,7 +3429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3445,9 +3461,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3479,6 +3496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3654,14 +3672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="30" customWidth="1"/>
@@ -3680,7 +3698,7 @@
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -3770,7 +3788,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" ht="30">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3802,8 +3820,11 @@
       <c r="L3" s="45" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="M3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <f>A3+1</f>
         <v>2</v>
@@ -3837,7 +3858,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -3871,7 +3892,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3905,7 +3926,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3939,7 +3960,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3969,7 +3990,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="46"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4003,7 +4024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4037,7 +4058,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4071,7 +4092,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4105,7 +4126,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4139,7 +4160,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4173,7 +4194,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4207,7 +4228,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4241,7 +4262,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4275,7 +4296,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4309,7 +4330,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4343,7 +4364,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4377,7 +4398,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4411,7 +4432,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4445,7 +4466,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4479,7 +4500,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4513,7 +4534,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4547,7 +4568,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4577,7 +4598,7 @@
       <c r="K26" s="21"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4611,7 +4632,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4645,7 +4666,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4679,7 +4700,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4713,7 +4734,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4747,7 +4768,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4781,7 +4802,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4815,7 +4836,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4849,7 +4870,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4883,7 +4904,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4917,7 +4938,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4951,7 +4972,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4985,7 +5006,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5019,7 +5040,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5053,7 +5074,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5087,7 +5108,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5121,7 +5142,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5155,7 +5176,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5185,7 +5206,7 @@
       <c r="K44" s="21"/>
       <c r="L44" s="46"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5219,7 +5240,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5253,7 +5274,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5287,7 +5308,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5321,7 +5342,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5355,7 +5376,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5389,7 +5410,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5423,7 +5444,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5457,7 +5478,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5491,7 +5512,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5525,7 +5546,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5559,7 +5580,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5593,7 +5614,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5627,7 +5648,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -5661,7 +5682,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -5695,7 +5716,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -5729,7 +5750,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -5763,7 +5784,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -5797,7 +5818,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -5831,7 +5852,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -5865,7 +5886,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -5899,7 +5920,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -5933,7 +5954,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -5967,7 +5988,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6001,7 +6022,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="22">
         <f t="shared" ref="A69:A132" si="1">A68+1</f>
         <v>67</v>
@@ -6035,7 +6056,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6069,7 +6090,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6103,7 +6124,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6137,7 +6158,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6171,7 +6192,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6205,7 +6226,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6239,7 +6260,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6273,7 +6294,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6307,7 +6328,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6341,7 +6362,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6375,7 +6396,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6409,7 +6430,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6443,7 +6464,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6477,7 +6498,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="22">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6511,7 +6532,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6545,7 +6566,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6579,7 +6600,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6613,7 +6634,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6647,7 +6668,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6681,7 +6702,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6715,7 +6736,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6749,7 +6770,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6783,7 +6804,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6817,7 +6838,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6851,7 +6872,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="22">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6885,7 +6906,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="22">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -6919,7 +6940,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="22">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -6953,7 +6974,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="22">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -6987,7 +7008,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -7021,7 +7042,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -7055,7 +7076,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -7089,7 +7110,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -7123,7 +7144,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -7155,7 +7176,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -7189,7 +7210,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="22">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -7223,7 +7244,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="22">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -7257,7 +7278,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="22">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -7291,7 +7312,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="22">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -7325,7 +7346,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="22">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -7359,7 +7380,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -7393,7 +7414,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="22">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7427,7 +7448,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="22">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7461,7 +7482,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="22">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -7495,7 +7516,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="22">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -7529,7 +7550,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="22">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -7563,7 +7584,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="22">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -7597,7 +7618,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="22">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -7631,7 +7652,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -7665,7 +7686,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="22">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -7699,7 +7720,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -7733,7 +7754,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -7767,7 +7788,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -7801,7 +7822,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -7835,7 +7856,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="22">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7869,7 +7890,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="22">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7903,7 +7924,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7937,7 +7958,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7971,7 +7992,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="22">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -8005,7 +8026,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="22">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -8039,7 +8060,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -8073,7 +8094,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="22">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -8107,7 +8128,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -8141,7 +8162,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -8175,7 +8196,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <f t="shared" ref="A133:A186" si="2">A132+1</f>
         <v>131</v>
@@ -8209,7 +8230,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -8243,7 +8264,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -8277,7 +8298,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="22">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -8311,7 +8332,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -8345,7 +8366,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -8379,7 +8400,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -8413,7 +8434,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -8447,7 +8468,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="22">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -8481,7 +8502,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="22">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -8515,7 +8536,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="22">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -8549,7 +8570,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="22">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -8583,7 +8604,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="22">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -8617,7 +8638,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="22">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -8651,7 +8672,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="22">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -8685,7 +8706,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="22">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -8719,7 +8740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="22">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -8753,7 +8774,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="22">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -8787,7 +8808,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -8821,7 +8842,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -8855,7 +8876,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="22">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -8889,7 +8910,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -8923,7 +8944,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="22">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -8957,7 +8978,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="22">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -8991,7 +9012,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="22">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -9025,7 +9046,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="22">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -9059,7 +9080,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="22">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -9093,7 +9114,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="22">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -9127,7 +9148,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="22">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -9161,7 +9182,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="22">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -9195,7 +9216,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -9229,7 +9250,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -9263,7 +9284,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="22">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -9297,7 +9318,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -9331,7 +9352,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -9365,7 +9386,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -9399,7 +9420,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="22">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -9433,7 +9454,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -9467,7 +9488,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -9501,7 +9522,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -9535,7 +9556,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="22">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -9569,7 +9590,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -9603,7 +9624,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -9637,7 +9658,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -9671,7 +9692,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -9705,7 +9726,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -9739,7 +9760,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -9773,7 +9794,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -9807,7 +9828,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="22">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -9841,7 +9862,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="22">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -9875,7 +9896,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -9909,7 +9930,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="22">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -9943,7 +9964,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="22">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -9977,7 +9998,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -10018,24 +10039,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter Laptop\Documents\GitHub\PC-Troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1017">
   <si>
     <t>NO.</t>
   </si>
@@ -3676,7 +3676,7 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3821,6 +3821,9 @@
         <v>495</v>
       </c>
       <c r="M3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="N3" t="s">
         <v>1016</v>
       </c>
     </row>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter Laptop\Documents\GitHub\PC-Troubleshooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="11505"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="8880" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1214">
   <si>
     <t>NO.</t>
   </si>
@@ -344,9 +344,6 @@
     <t>REYNALDO A. ALBOS</t>
   </si>
   <si>
-    <t>LIWAYWAY O. ALCANTARA</t>
-  </si>
-  <si>
     <t>MICHELLE M. ANG</t>
   </si>
   <si>
@@ -2099,9 +2096,6 @@
     <t>RIZALINA I. CAINCOL</t>
   </si>
   <si>
-    <t>ROMEO A. CAINCOL</t>
-  </si>
-  <si>
     <t>ARNOLD L. CALAGUAS</t>
   </si>
   <si>
@@ -2285,9 +2279,6 @@
     <t>CELESTE D. LAUTA</t>
   </si>
   <si>
-    <t>AURELIO S. LEAÑO</t>
-  </si>
-  <si>
     <t>JOSEFINA R. LIBO-ON</t>
   </si>
   <si>
@@ -2330,12 +2321,6 @@
     <t>APOLONIO R. MANGANAAN</t>
   </si>
   <si>
-    <t>GREGORIO B. MAÑO</t>
-  </si>
-  <si>
-    <t>MARIANO B. MANUEL</t>
-  </si>
-  <si>
     <t>JOCELYN V. MANZANARES</t>
   </si>
   <si>
@@ -2507,9 +2492,6 @@
     <t>ALBERT J. VALDEHUEZA</t>
   </si>
   <si>
-    <t>AGOSTO M. VALENZUELA</t>
-  </si>
-  <si>
     <t>FRANCISCO Q. VEGAS</t>
   </si>
   <si>
@@ -3363,6 +3345,327 @@
   </si>
   <si>
     <t>Wilfredo L. Llapitan.psd</t>
+  </si>
+  <si>
+    <t>Noel R Adriano.psd</t>
+  </si>
+  <si>
+    <t>Windell M Agravante.psd</t>
+  </si>
+  <si>
+    <t>Reynaldo Albos.psd</t>
+  </si>
+  <si>
+    <t>Liwayway A Alcantara.psd</t>
+  </si>
+  <si>
+    <t>LIWAYWAY A. ALCANTARA</t>
+  </si>
+  <si>
+    <t>AURELIO S. LEAÑO JR.</t>
+  </si>
+  <si>
+    <t>Aurelio S Leaño.psd</t>
+  </si>
+  <si>
+    <t>Karen A. Mallari.psd</t>
+  </si>
+  <si>
+    <t>Jose M Maloles.psd</t>
+  </si>
+  <si>
+    <t>Romeo Malaya.psd</t>
+  </si>
+  <si>
+    <t>GREGORIO B. MAÑO JR.</t>
+  </si>
+  <si>
+    <t>Gregorio B Maño Jr.psd</t>
+  </si>
+  <si>
+    <t>MARIANO B. MANUEL JR.</t>
+  </si>
+  <si>
+    <t>Mariano B. Manuel Jr.psd</t>
+  </si>
+  <si>
+    <t>Jommel Marayag.psd</t>
+  </si>
+  <si>
+    <t>Bienvenido A Medrano Jr.psd</t>
+  </si>
+  <si>
+    <t>Rico D Misal.psd</t>
+  </si>
+  <si>
+    <t>Danilo Niera.psd</t>
+  </si>
+  <si>
+    <t>Nathaniel M. Osias.psd</t>
+  </si>
+  <si>
+    <t>Troy C Padrigon.psd</t>
+  </si>
+  <si>
+    <t>Russel P Pagkaliwangan.psd</t>
+  </si>
+  <si>
+    <t>Armando B Palacio.psd</t>
+  </si>
+  <si>
+    <t>Eduardo L Palapal.psd</t>
+  </si>
+  <si>
+    <t>Jose Papa.psd</t>
+  </si>
+  <si>
+    <t>Juanito Pascual.psd</t>
+  </si>
+  <si>
+    <t>Florencio B Pesigan.psd</t>
+  </si>
+  <si>
+    <t>Nolito V Pinion.psd</t>
+  </si>
+  <si>
+    <t>Francisco Prieto.psd</t>
+  </si>
+  <si>
+    <t>Ronie Prieto.psd</t>
+  </si>
+  <si>
+    <t>Felipe C Quintano.psd</t>
+  </si>
+  <si>
+    <t>Bryan P Reblando.psd</t>
+  </si>
+  <si>
+    <t>Reynaldo Recede.psd</t>
+  </si>
+  <si>
+    <t>Arturo R Remonte.psd</t>
+  </si>
+  <si>
+    <t>Arnel Abdon Santos.psd</t>
+  </si>
+  <si>
+    <t>Maria Cecilia Solteo.psd</t>
+  </si>
+  <si>
+    <t>Melanio F Toling.psd</t>
+  </si>
+  <si>
+    <t>Fernandito B Torres.psd</t>
+  </si>
+  <si>
+    <t>Albert Valdehueza.psd</t>
+  </si>
+  <si>
+    <t>Agosto Valenzuela.psd</t>
+  </si>
+  <si>
+    <t>AGOSTO N. VALENZUELA</t>
+  </si>
+  <si>
+    <t>Francisco Q Vegas.psd</t>
+  </si>
+  <si>
+    <t>Patricio Villasoto.psd</t>
+  </si>
+  <si>
+    <t>Celso G Villota.psd</t>
+  </si>
+  <si>
+    <t>Irene  Asiado.psd</t>
+  </si>
+  <si>
+    <t>Gerardo Averion.psd</t>
+  </si>
+  <si>
+    <t>Pablo Badiola.psd</t>
+  </si>
+  <si>
+    <t>Danilo E Badong.psd</t>
+  </si>
+  <si>
+    <t>Marlene D Balmes.psd</t>
+  </si>
+  <si>
+    <t>Edwin Balongangey.psd</t>
+  </si>
+  <si>
+    <t>Jonie S. Banquiray.psd</t>
+  </si>
+  <si>
+    <t>Antonio I Bare Jr.psd</t>
+  </si>
+  <si>
+    <t>Alejandro Victor Benitez jr.psd</t>
+  </si>
+  <si>
+    <t>Sarah Evita C Benito.psd</t>
+  </si>
+  <si>
+    <t>Marlaw R Bigas.psd</t>
+  </si>
+  <si>
+    <t>Edgar John P Bilayon.psd</t>
+  </si>
+  <si>
+    <t>Jojit A Binuya.psd</t>
+  </si>
+  <si>
+    <t>Renato R Bismonte.psd</t>
+  </si>
+  <si>
+    <t>Eduardo S Bolalin.psd</t>
+  </si>
+  <si>
+    <t>Allan S Caber.psd</t>
+  </si>
+  <si>
+    <t>ROMEO A. CAINCOL SR.</t>
+  </si>
+  <si>
+    <t>Romeo A Caincol.psd</t>
+  </si>
+  <si>
+    <t>Charlie D Calamasa.psd</t>
+  </si>
+  <si>
+    <t>Bernard P Campano.psd</t>
+  </si>
+  <si>
+    <t>Florencio M Cardenas.psd</t>
+  </si>
+  <si>
+    <t>Vicente B Casaul.psd</t>
+  </si>
+  <si>
+    <t>Rachel Mae V Casile.psd</t>
+  </si>
+  <si>
+    <t>Ronaldo I Daguio.psd</t>
+  </si>
+  <si>
+    <t>Joel A Dajac.psd</t>
+  </si>
+  <si>
+    <t>Dante Rosal David.psd</t>
+  </si>
+  <si>
+    <t>Herminio S Del Rosario.psd</t>
+  </si>
+  <si>
+    <t>Rey Dorias.psd</t>
+  </si>
+  <si>
+    <t>Reynaldo P. Elevado.psd</t>
+  </si>
+  <si>
+    <t>Jose Balmas Emata.psd</t>
+  </si>
+  <si>
+    <t>Hospicio C Fandialan.psd</t>
+  </si>
+  <si>
+    <t>rolando r felicidario.psd</t>
+  </si>
+  <si>
+    <t>Enesto Ferrer.psd</t>
+  </si>
+  <si>
+    <t>Jose M Florece.psd</t>
+  </si>
+  <si>
+    <t>Jonathan A. Gamuhay.psd</t>
+  </si>
+  <si>
+    <t>Teresita T Garcia.psd</t>
+  </si>
+  <si>
+    <t>Jerson  B Geronimo.psd</t>
+  </si>
+  <si>
+    <t>Joseline A Geronimo.psd</t>
+  </si>
+  <si>
+    <t>Ranulfo B Grajo.psd</t>
+  </si>
+  <si>
+    <t>Francisco Guardian.psd</t>
+  </si>
+  <si>
+    <t>Rodrigo A Guerrero.psd</t>
+  </si>
+  <si>
+    <t>Carlito Guiao.psd</t>
+  </si>
+  <si>
+    <t>Maricel D Jiongco.psd</t>
+  </si>
+  <si>
+    <t>modesto altar labaco.psd</t>
+  </si>
+  <si>
+    <t>Celso Lagos.psd</t>
+  </si>
+  <si>
+    <t>Henry N Lanzuela.psd</t>
+  </si>
+  <si>
+    <t>Rey Mark A Maranan.psd</t>
+  </si>
+  <si>
+    <t>edwin m adversario.jpg</t>
+  </si>
+  <si>
+    <t>arvie c milag.jpg</t>
+  </si>
+  <si>
+    <t>edwin f ocampo.jpg</t>
+  </si>
+  <si>
+    <t>froilan m ollero.jpg</t>
+  </si>
+  <si>
+    <t>eduardo l palapal.jpg</t>
+  </si>
+  <si>
+    <t>ferlyn u pelayo.jpg</t>
+  </si>
+  <si>
+    <t>felipe c quintano.jpg</t>
+  </si>
+  <si>
+    <t>francisco m ramos.jpg</t>
+  </si>
+  <si>
+    <t>aldwin c relleve.jpg</t>
+  </si>
+  <si>
+    <t>felix b relleve.jpg</t>
+  </si>
+  <si>
+    <t>elmer c rocillo.jpg</t>
+  </si>
+  <si>
+    <t>diana u sandoval.jpg</t>
+  </si>
+  <si>
+    <t>crizel c satera.jpg</t>
+  </si>
+  <si>
+    <t>emmanuel l tolentino.jpg</t>
+  </si>
+  <si>
+    <t>agosto n valenzuela.jpg</t>
+  </si>
+  <si>
+    <t>francisco q vegas.jpg</t>
+  </si>
+  <si>
+    <t>edwin r zaragosa.jpg</t>
   </si>
 </sst>
 </file>
@@ -3962,10 +4265,10 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="N101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="M117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N108" sqref="N108"/>
+      <selection pane="bottomRight" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,22 +4380,22 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>671</v>
-      </c>
-      <c r="C3" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="39">
         <v>22325</v>
@@ -4101,18 +4404,20 @@
         <v>151044058</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="K3" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N3" s="59"/>
+        <v>1002</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>1107</v>
+      </c>
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
     </row>
@@ -4129,10 +4434,10 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H4" s="39">
         <v>24216</v>
@@ -4141,17 +4446,19 @@
         <v>165194964</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="K4" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L4" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="M4" s="59"/>
+        <v>493</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>1197</v>
+      </c>
       <c r="N4" s="59" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
@@ -4169,10 +4476,10 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="40">
         <v>25575</v>
@@ -4181,16 +4488,18 @@
         <v>924906320</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="N5" s="59" t="s">
+        <v>1108</v>
+      </c>
       <c r="O5" s="59"/>
       <c r="P5" s="59"/>
     </row>
@@ -4207,10 +4516,10 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" s="40">
         <v>22976</v>
@@ -4219,16 +4528,18 @@
         <v>171745841</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
+      <c r="N6" s="59" t="s">
+        <v>1109</v>
+      </c>
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
     </row>
@@ -4238,17 +4549,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>106</v>
+        <v>1111</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="40">
         <v>23260</v>
@@ -4257,16 +4568,18 @@
         <v>900127920</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K7" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
+      <c r="N7" s="59" t="s">
+        <v>1110</v>
+      </c>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
     </row>
@@ -4276,17 +4589,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="39">
         <v>22024</v>
@@ -4295,13 +4608,13 @@
         <v>165191980</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="45"/>
       <c r="M8" s="59"/>
       <c r="N8" s="59" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="O8" s="59"/>
       <c r="P8" s="59"/>
@@ -4312,17 +4625,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H9" s="40">
         <v>27327</v>
@@ -4331,17 +4644,17 @@
         <v>918773504</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="K9" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M9" s="59"/>
       <c r="N9" s="59" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="O9" s="59"/>
       <c r="P9" s="59"/>
@@ -4352,17 +4665,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="40">
         <v>22077</v>
@@ -4371,17 +4684,17 @@
         <v>192032803</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="K10" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M10" s="59"/>
       <c r="N10" s="59" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
@@ -4392,17 +4705,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="40">
         <v>23657</v>
@@ -4411,17 +4724,17 @@
         <v>165192367</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M11" s="59"/>
       <c r="N11" s="59" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="O11" s="59"/>
       <c r="P11" s="59"/>
@@ -4432,17 +4745,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="40">
         <v>21002</v>
@@ -4451,17 +4764,17 @@
         <v>142608110</v>
       </c>
       <c r="J12" s="35" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L12" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M12" s="59"/>
       <c r="N12" s="59" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
@@ -4472,17 +4785,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H13" s="40">
         <v>29451</v>
@@ -4491,16 +4804,18 @@
         <v>218000134</v>
       </c>
       <c r="J13" s="35" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
+      <c r="N13" s="59" t="s">
+        <v>1150</v>
+      </c>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
     </row>
@@ -4510,17 +4825,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="40">
         <v>22616</v>
@@ -4529,16 +4844,18 @@
         <v>142613301</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K14" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L14" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
+      <c r="N14" s="59" t="s">
+        <v>1151</v>
+      </c>
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
     </row>
@@ -4548,17 +4865,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="40">
         <v>22661</v>
@@ -4567,16 +4884,18 @@
         <v>142613335</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="K15" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L15" s="44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
+      <c r="N15" s="59" t="s">
+        <v>1152</v>
+      </c>
       <c r="O15" s="59"/>
       <c r="P15" s="59"/>
     </row>
@@ -4586,17 +4905,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="40">
         <v>35339</v>
@@ -4605,16 +4924,18 @@
         <v>144937413</v>
       </c>
       <c r="J16" s="35" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L16" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
+      <c r="N16" s="59" t="s">
+        <v>1153</v>
+      </c>
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
     </row>
@@ -4624,17 +4945,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="40">
         <v>19863</v>
@@ -4643,17 +4964,17 @@
         <v>142608232</v>
       </c>
       <c r="J17" s="35" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L17" s="44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M17" s="59"/>
       <c r="N17" s="59" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="O17" s="59"/>
       <c r="P17" s="59"/>
@@ -4664,17 +4985,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="58" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C18" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H18" s="40">
         <v>29977</v>
@@ -4683,17 +5004,17 @@
         <v>424345754</v>
       </c>
       <c r="J18" s="35" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="K18" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L18" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M18" s="59"/>
       <c r="N18" s="59" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
@@ -4704,17 +5025,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="40">
         <v>31849</v>
@@ -4723,16 +5044,18 @@
         <v>464068833</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="K19" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="59" t="s">
+        <v>1154</v>
+      </c>
       <c r="O19" s="59"/>
       <c r="P19" s="59"/>
     </row>
@@ -4742,17 +5065,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="40">
         <v>22990</v>
@@ -4761,16 +5084,18 @@
         <v>125444103</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
+      <c r="N20" s="59" t="s">
+        <v>1155</v>
+      </c>
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
     </row>
@@ -4780,36 +5105,36 @@
         <v>19</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="40">
         <v>25772</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L21" s="44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M21" s="59"/>
       <c r="N21" s="59" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="O21" s="59"/>
       <c r="P21" s="59"/>
@@ -4820,17 +5145,17 @@
         <v>20</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="40">
         <v>31000</v>
@@ -4839,16 +5164,18 @@
         <v>424288332</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L22" s="44" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
+      <c r="N22" s="59" t="s">
+        <v>1156</v>
+      </c>
       <c r="O22" s="59"/>
       <c r="P22" s="59"/>
     </row>
@@ -4858,17 +5185,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="40">
         <v>20519</v>
@@ -4877,16 +5204,18 @@
         <v>145222059</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L23" s="44" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
+      <c r="N23" s="59" t="s">
+        <v>1157</v>
+      </c>
       <c r="O23" s="59"/>
       <c r="P23" s="59"/>
     </row>
@@ -4896,17 +5225,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24" s="40">
         <v>29023</v>
@@ -4915,17 +5244,17 @@
         <v>214716852</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="K24" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M24" s="59"/>
       <c r="N24" s="59" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="O24" s="59"/>
       <c r="P24" s="59"/>
@@ -4936,17 +5265,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25" s="40">
         <v>22570</v>
@@ -4955,16 +5284,18 @@
         <v>165192535</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="K25" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L25" s="44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
+      <c r="N25" s="59" t="s">
+        <v>1158</v>
+      </c>
       <c r="O25" s="59"/>
       <c r="P25" s="59"/>
     </row>
@@ -4974,17 +5305,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C26" s="56" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="39">
         <v>31689</v>
@@ -4993,12 +5324,14 @@
         <v>411215068</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="45"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="N26" s="59" t="s">
+        <v>1159</v>
+      </c>
       <c r="O26" s="59"/>
       <c r="P26" s="59"/>
     </row>
@@ -5008,17 +5341,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27" s="40">
         <v>30946</v>
@@ -5027,16 +5360,18 @@
         <v>296135695</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="K27" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L27" s="44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
+      <c r="N27" s="59" t="s">
+        <v>1160</v>
+      </c>
       <c r="O27" s="59"/>
       <c r="P27" s="59"/>
     </row>
@@ -5046,17 +5381,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C28" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28" s="40">
         <v>23155</v>
@@ -5065,16 +5400,18 @@
         <v>104608504</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L28" s="44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
+      <c r="N28" s="59" t="s">
+        <v>1161</v>
+      </c>
       <c r="O28" s="59"/>
       <c r="P28" s="59"/>
     </row>
@@ -5084,17 +5421,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" s="40">
         <v>35553</v>
@@ -5103,16 +5440,18 @@
         <v>250416965</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L29" s="44" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
+      <c r="N29" s="59" t="s">
+        <v>1162</v>
+      </c>
       <c r="O29" s="59"/>
       <c r="P29" s="59"/>
     </row>
@@ -5122,17 +5461,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="40">
         <v>27359</v>
@@ -5141,16 +5480,18 @@
         <v>935238240</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L30" s="44" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="N30" s="59" t="s">
+        <v>1163</v>
+      </c>
       <c r="O30" s="59"/>
       <c r="P30" s="59"/>
     </row>
@@ -5160,17 +5501,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="40">
         <v>20559</v>
@@ -5179,16 +5520,18 @@
         <v>142613761</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L31" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
+      <c r="N31" s="59" t="s">
+        <v>1164</v>
+      </c>
       <c r="O31" s="59"/>
       <c r="P31" s="59"/>
     </row>
@@ -5198,17 +5541,17 @@
         <v>30</v>
       </c>
       <c r="B32" s="58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G32" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="39">
         <v>26462</v>
@@ -5217,17 +5560,17 @@
         <v>164865103</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L32" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M32" s="59"/>
       <c r="N32" s="59" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="O32" s="59"/>
       <c r="P32" s="59"/>
@@ -5238,17 +5581,17 @@
         <v>31</v>
       </c>
       <c r="B33" s="58" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G33" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H33" s="40">
         <v>30718</v>
@@ -5257,17 +5600,17 @@
         <v>423939767</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L33" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M33" s="59"/>
       <c r="N33" s="59" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
@@ -5278,17 +5621,17 @@
         <v>32</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H34" s="40">
         <v>23683</v>
@@ -5297,17 +5640,17 @@
         <v>914202234</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L34" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M34" s="59"/>
       <c r="N34" s="59" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="O34" s="59"/>
       <c r="P34" s="59"/>
@@ -5318,17 +5661,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C35" s="57" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" s="40">
         <v>22002</v>
@@ -5337,17 +5680,17 @@
         <v>142605326</v>
       </c>
       <c r="J35" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L35" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M35" s="59"/>
       <c r="N35" s="59" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="O35" s="59"/>
       <c r="P35" s="59"/>
@@ -5358,17 +5701,17 @@
         <v>34</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C36" s="56" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="39">
         <v>24302</v>
@@ -5377,16 +5720,18 @@
         <v>165193432</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L36" s="47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
+      <c r="N36" s="59" t="s">
+        <v>1165</v>
+      </c>
       <c r="O36" s="59"/>
       <c r="P36" s="59"/>
     </row>
@@ -5396,17 +5741,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C37" s="57" t="s">
         <v>50</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="40">
         <v>22816</v>
@@ -5415,17 +5760,17 @@
         <v>138628969</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L37" s="44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M37" s="59"/>
       <c r="N37" s="59" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="O37" s="59"/>
       <c r="P37" s="59"/>
@@ -5436,17 +5781,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="58" t="s">
-        <v>691</v>
+        <v>1166</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H38" s="40">
         <v>22481</v>
@@ -5455,16 +5800,18 @@
         <v>142620778</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="K38" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L38" s="44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
+      <c r="N38" s="59" t="s">
+        <v>1167</v>
+      </c>
       <c r="O38" s="59"/>
       <c r="P38" s="59"/>
     </row>
@@ -5474,17 +5821,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H39" s="40">
         <v>24424</v>
@@ -5493,17 +5840,17 @@
         <v>120528784</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="K39" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L39" s="44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M39" s="59"/>
       <c r="N39" s="59" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="O39" s="59"/>
       <c r="P39" s="59"/>
@@ -5514,17 +5861,17 @@
         <v>38</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C40" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H40" s="40">
         <v>32014</v>
@@ -5533,16 +5880,18 @@
         <v>418956294</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="K40" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L40" s="44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
+      <c r="N40" s="59" t="s">
+        <v>1168</v>
+      </c>
       <c r="O40" s="59"/>
       <c r="P40" s="59"/>
     </row>
@@ -5552,17 +5901,17 @@
         <v>39</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C41" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G41" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H41" s="40">
         <v>25800</v>
@@ -5571,16 +5920,18 @@
         <v>914201748</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L41" s="44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
+      <c r="N41" s="59" t="s">
+        <v>1169</v>
+      </c>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
     </row>
@@ -5590,17 +5941,17 @@
         <v>40</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" s="40">
         <v>21756</v>
@@ -5609,17 +5960,17 @@
         <v>101610695</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="K42" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L42" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M42" s="59"/>
       <c r="N42" s="59" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
@@ -5630,17 +5981,17 @@
         <v>41</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H43" s="40">
         <v>27631</v>
@@ -5649,17 +6000,17 @@
         <v>248214674</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L43" s="44" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M43" s="59"/>
       <c r="N43" s="59" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
@@ -5670,17 +6021,17 @@
         <v>42</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C44" s="56" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H44" s="39">
         <v>19932</v>
@@ -5689,13 +6040,13 @@
         <v>19229740</v>
       </c>
       <c r="J44" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="45"/>
       <c r="M44" s="59"/>
       <c r="N44" s="59" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
@@ -5706,17 +6057,17 @@
         <v>43</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C45" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D45" s="25"/>
       <c r="E45" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H45" s="40">
         <v>28972</v>
@@ -5725,17 +6076,17 @@
         <v>422399825</v>
       </c>
       <c r="J45" s="36" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="K45" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L45" s="44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M45" s="59"/>
       <c r="N45" s="59" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
@@ -5746,17 +6097,17 @@
         <v>44</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C46" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D46" s="25"/>
       <c r="E46" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H46" s="40">
         <v>21126</v>
@@ -5765,16 +6116,18 @@
         <v>165193472</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K46" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L46" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
+      <c r="N46" s="59" t="s">
+        <v>1170</v>
+      </c>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
@@ -5784,17 +6137,17 @@
         <v>45</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="25"/>
       <c r="E47" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H47" s="40">
         <v>21181</v>
@@ -5803,16 +6156,18 @@
         <v>142614101</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="K47" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L47" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
+      <c r="N47" s="59" t="s">
+        <v>1171</v>
+      </c>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
@@ -5822,17 +6177,17 @@
         <v>46</v>
       </c>
       <c r="B48" s="58" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C48" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G48" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H48" s="39">
         <v>34761</v>
@@ -5841,16 +6196,18 @@
         <v>459226314</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L48" s="45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="N48" s="59" t="s">
+        <v>1172</v>
+      </c>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
     </row>
@@ -5860,17 +6217,17 @@
         <v>47</v>
       </c>
       <c r="B49" s="58" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C49" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="25"/>
       <c r="E49" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H49" s="40">
         <v>32355</v>
@@ -5879,17 +6236,17 @@
         <v>267898965</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K49" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L49" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M49" s="59"/>
       <c r="N49" s="59" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
@@ -5900,17 +6257,17 @@
         <v>48</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C50" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="25"/>
       <c r="E50" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G50" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="40">
         <v>20275</v>
@@ -5919,17 +6276,17 @@
         <v>165192550</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="K50" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L50" s="44" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M50" s="59"/>
       <c r="N50" s="59" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
@@ -5940,17 +6297,17 @@
         <v>49</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C51" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G51" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H51" s="40">
         <v>33226</v>
@@ -5959,13 +6316,13 @@
         <v>439232612</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="K51" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L51" s="44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M51" s="59"/>
       <c r="N51" s="59"/>
@@ -5978,17 +6335,17 @@
         <v>50</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C52" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="25"/>
       <c r="E52" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H52" s="40">
         <v>32227</v>
@@ -5997,17 +6354,17 @@
         <v>296214257</v>
       </c>
       <c r="J52" s="36" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="K52" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L52" s="44" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M52" s="59"/>
       <c r="N52" s="59" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
@@ -6018,17 +6375,17 @@
         <v>51</v>
       </c>
       <c r="B53" s="58" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C53" s="56" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H53" s="39">
         <v>31812</v>
@@ -6037,17 +6394,17 @@
         <v>281402642</v>
       </c>
       <c r="J53" s="36" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K53" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L53" s="44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M53" s="59"/>
       <c r="N53" s="59" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
@@ -6058,17 +6415,17 @@
         <v>52</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C54" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H54" s="40">
         <v>25805</v>
@@ -6077,16 +6434,18 @@
         <v>159310174</v>
       </c>
       <c r="J54" s="36" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="K54" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L54" s="44" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M54" s="59"/>
-      <c r="N54" s="59"/>
+      <c r="N54" s="59" t="s">
+        <v>1173</v>
+      </c>
       <c r="O54" s="59"/>
       <c r="P54" s="59"/>
     </row>
@@ -6096,17 +6455,17 @@
         <v>53</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C55" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H55" s="40">
         <v>28512</v>
@@ -6115,16 +6474,18 @@
         <v>924913303</v>
       </c>
       <c r="J55" s="36" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="K55" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L55" s="44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M55" s="59"/>
-      <c r="N55" s="59"/>
+      <c r="N55" s="59" t="s">
+        <v>1174</v>
+      </c>
       <c r="O55" s="59"/>
       <c r="P55" s="59"/>
     </row>
@@ -6134,17 +6495,17 @@
         <v>54</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C56" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D56" s="25"/>
       <c r="E56" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H56" s="40">
         <v>20120</v>
@@ -6153,16 +6514,18 @@
         <v>142621779</v>
       </c>
       <c r="J56" s="36" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="K56" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L56" s="44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M56" s="59"/>
-      <c r="N56" s="59"/>
+      <c r="N56" s="59" t="s">
+        <v>1175</v>
+      </c>
       <c r="O56" s="59"/>
       <c r="P56" s="59"/>
     </row>
@@ -6172,17 +6535,17 @@
         <v>55</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C57" s="57" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H57" s="40">
         <v>24030</v>
@@ -6191,17 +6554,17 @@
         <v>165192375</v>
       </c>
       <c r="J57" s="36" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="K57" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L57" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M57" s="59"/>
       <c r="N57" s="59" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="O57" s="59"/>
       <c r="P57" s="59"/>
@@ -6212,17 +6575,17 @@
         <v>56</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C58" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="25"/>
       <c r="E58" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G58" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H58" s="40">
         <v>25048</v>
@@ -6231,16 +6594,18 @@
         <v>199360893</v>
       </c>
       <c r="J58" s="36" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="K58" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L58" s="44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="N58" s="59" t="s">
+        <v>1176</v>
+      </c>
       <c r="O58" s="59"/>
       <c r="P58" s="59"/>
     </row>
@@ -6250,17 +6615,17 @@
         <v>57</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C59" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D59" s="25"/>
       <c r="E59" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H59" s="40">
         <v>32639</v>
@@ -6269,17 +6634,17 @@
         <v>453950148</v>
       </c>
       <c r="J59" s="36" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="K59" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L59" s="44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M59" s="59"/>
       <c r="N59" s="59" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
@@ -6290,17 +6655,17 @@
         <v>58</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C60" s="57" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="25"/>
       <c r="E60" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G60" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H60" s="40">
         <v>22992</v>
@@ -6309,17 +6674,17 @@
         <v>249947362</v>
       </c>
       <c r="J60" s="36" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="K60" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L60" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M60" s="59"/>
       <c r="N60" s="59" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="O60" s="59"/>
       <c r="P60" s="59"/>
@@ -6330,17 +6695,17 @@
         <v>59</v>
       </c>
       <c r="B61" s="58" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C61" s="57" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="25"/>
       <c r="E61" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H61" s="40">
         <v>23345</v>
@@ -6349,17 +6714,17 @@
         <v>142605640</v>
       </c>
       <c r="J61" s="36" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="K61" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L61" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M61" s="59"/>
       <c r="N61" s="59" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="O61" s="59"/>
       <c r="P61" s="59"/>
@@ -6370,17 +6735,17 @@
         <v>60</v>
       </c>
       <c r="B62" s="58" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C62" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="25"/>
       <c r="E62" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H62" s="40">
         <v>22023</v>
@@ -6389,16 +6754,18 @@
         <v>142614845</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="K62" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L62" s="44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
+      <c r="N62" s="59" t="s">
+        <v>1177</v>
+      </c>
       <c r="O62" s="59"/>
       <c r="P62" s="59"/>
     </row>
@@ -6408,17 +6775,17 @@
         <v>61</v>
       </c>
       <c r="B63" s="58" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C63" s="57" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G63" s="51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H63" s="40">
         <v>22824</v>
@@ -6427,17 +6794,17 @@
         <v>138581538</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="K63" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L63" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M63" s="59"/>
       <c r="N63" s="59" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="59"/>
@@ -6448,17 +6815,17 @@
         <v>62</v>
       </c>
       <c r="B64" s="58" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C64" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="25"/>
       <c r="E64" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H64" s="40">
         <v>24419</v>
@@ -6467,16 +6834,18 @@
         <v>142614896</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="K64" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L64" s="44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
+      <c r="N64" s="59" t="s">
+        <v>1178</v>
+      </c>
       <c r="O64" s="59"/>
       <c r="P64" s="59"/>
     </row>
@@ -6486,17 +6855,17 @@
         <v>63</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C65" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D65" s="25"/>
       <c r="E65" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H65" s="40">
         <v>22650</v>
@@ -6505,16 +6874,18 @@
         <v>165192576</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="K65" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L65" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
+      <c r="N65" s="59" t="s">
+        <v>1179</v>
+      </c>
       <c r="O65" s="59"/>
       <c r="P65" s="59"/>
     </row>
@@ -6524,17 +6895,17 @@
         <v>64</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C66" s="57" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="25"/>
       <c r="E66" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G66" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H66" s="40">
         <v>23054</v>
@@ -6543,17 +6914,17 @@
         <v>165192246</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="K66" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L66" s="44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M66" s="59"/>
       <c r="N66" s="59" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="O66" s="59"/>
       <c r="P66" s="59"/>
@@ -6564,17 +6935,17 @@
         <v>65</v>
       </c>
       <c r="B67" s="58" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C67" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D67" s="25"/>
       <c r="E67" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H67" s="40">
         <v>24791</v>
@@ -6583,17 +6954,17 @@
         <v>165593694</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="K67" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L67" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M67" s="59"/>
       <c r="N67" s="59" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
@@ -6604,17 +6975,17 @@
         <v>66</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C68" s="57" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H68" s="40">
         <v>30901</v>
@@ -6623,17 +6994,17 @@
         <v>250753185</v>
       </c>
       <c r="J68" s="36" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="K68" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L68" s="44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M68" s="59"/>
       <c r="N68" s="59" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="O68" s="59"/>
       <c r="P68" s="59"/>
@@ -6644,17 +7015,17 @@
         <v>67</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C69" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D69" s="25"/>
       <c r="E69" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H69" s="40">
         <v>22645</v>
@@ -6663,17 +7034,17 @@
         <v>165193159</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="K69" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M69" s="59"/>
       <c r="N69" s="59" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="O69" s="59"/>
       <c r="P69" s="59"/>
@@ -6684,17 +7055,17 @@
         <v>68</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C70" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D70" s="25"/>
       <c r="E70" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H70" s="40">
         <v>23032</v>
@@ -6703,16 +7074,18 @@
         <v>142615099</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="K70" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L70" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
+      <c r="N70" s="59" t="s">
+        <v>1180</v>
+      </c>
       <c r="O70" s="59"/>
       <c r="P70" s="59"/>
     </row>
@@ -6722,17 +7095,17 @@
         <v>69</v>
       </c>
       <c r="B71" s="58" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C71" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D71" s="25"/>
       <c r="E71" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H71" s="40">
         <v>20691</v>
@@ -6741,16 +7114,18 @@
         <v>144937108</v>
       </c>
       <c r="J71" s="36" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="K71" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L71" s="44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
+      <c r="N71" s="59" t="s">
+        <v>1181</v>
+      </c>
       <c r="O71" s="59"/>
       <c r="P71" s="59"/>
     </row>
@@ -6760,36 +7135,36 @@
         <v>70</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C72" s="57" t="s">
         <v>66</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H72" s="40">
         <v>32931</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="K72" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L72" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M72" s="59"/>
       <c r="N72" s="59" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="O72" s="59"/>
       <c r="P72" s="59"/>
@@ -6800,17 +7175,17 @@
         <v>71</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C73" s="57" t="s">
         <v>67</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H73" s="40">
         <v>28842</v>
@@ -6819,16 +7194,18 @@
         <v>206957670</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L73" s="44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
+      <c r="N73" s="59" t="s">
+        <v>1182</v>
+      </c>
       <c r="O73" s="59"/>
       <c r="P73" s="59"/>
     </row>
@@ -6838,17 +7215,17 @@
         <v>72</v>
       </c>
       <c r="B74" s="58" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C74" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H74" s="40">
         <v>21447</v>
@@ -6857,16 +7234,18 @@
         <v>165192869</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="K74" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L74" s="44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
+      <c r="N74" s="59" t="s">
+        <v>1183</v>
+      </c>
       <c r="O74" s="59"/>
       <c r="P74" s="59"/>
     </row>
@@ -6876,17 +7255,17 @@
         <v>73</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C75" s="57" t="s">
         <v>59</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G75" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H75" s="40">
         <v>21529</v>
@@ -6895,17 +7274,17 @@
         <v>138629009</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="K75" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L75" s="44" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M75" s="59"/>
       <c r="N75" s="59" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="O75" s="59"/>
       <c r="P75" s="59"/>
@@ -6916,17 +7295,17 @@
         <v>74</v>
       </c>
       <c r="B76" s="58" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C76" s="57" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="25"/>
       <c r="E76" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H76" s="40">
         <v>23431</v>
@@ -6935,17 +7314,17 @@
         <v>148799489</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="K76" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L76" s="44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M76" s="59"/>
       <c r="N76" s="59" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="O76" s="59"/>
       <c r="P76" s="59"/>
@@ -6956,17 +7335,17 @@
         <v>75</v>
       </c>
       <c r="B77" s="58" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C77" s="57" t="s">
         <v>69</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H77" s="40">
         <v>19895</v>
@@ -6975,17 +7354,17 @@
         <v>131068283</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="K77" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L77" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M77" s="59"/>
       <c r="N77" s="59" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="O77" s="59"/>
       <c r="P77" s="59"/>
@@ -6996,17 +7375,17 @@
         <v>76</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C78" s="57" t="s">
         <v>70</v>
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H78" s="40">
         <v>30319</v>
@@ -7015,16 +7394,18 @@
         <v>936398043</v>
       </c>
       <c r="J78" s="36" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="K78" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L78" s="44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
+      <c r="N78" s="59" t="s">
+        <v>1184</v>
+      </c>
       <c r="O78" s="59"/>
       <c r="P78" s="59"/>
     </row>
@@ -7034,17 +7415,17 @@
         <v>77</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C79" s="56" t="s">
         <v>71</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G79" s="49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H79" s="39">
         <v>20289</v>
@@ -7053,17 +7434,17 @@
         <v>142607585</v>
       </c>
       <c r="J79" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K79" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L79" s="44" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M79" s="59"/>
       <c r="N79" s="59" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="O79" s="59"/>
       <c r="P79" s="59"/>
@@ -7074,17 +7455,17 @@
         <v>78</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C80" s="57" t="s">
         <v>72</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H80" s="40">
         <v>23487</v>
@@ -7093,16 +7474,18 @@
         <v>106781181</v>
       </c>
       <c r="J80" s="36" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="K80" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L80" s="44" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
+      <c r="N80" s="59" t="s">
+        <v>1185</v>
+      </c>
       <c r="O80" s="59"/>
       <c r="P80" s="59"/>
     </row>
@@ -7112,17 +7495,17 @@
         <v>79</v>
       </c>
       <c r="B81" s="58" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C81" s="57" t="s">
         <v>73</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G81" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H81" s="40">
         <v>31591</v>
@@ -7131,17 +7514,17 @@
         <v>948718609</v>
       </c>
       <c r="J81" s="36" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="K81" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L81" s="44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M81" s="59"/>
       <c r="N81" s="59" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="O81" s="59"/>
       <c r="P81" s="59"/>
@@ -7152,17 +7535,17 @@
         <v>80</v>
       </c>
       <c r="B82" s="58" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C82" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G82" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H82" s="40">
         <v>22402</v>
@@ -7171,17 +7554,17 @@
         <v>125523963</v>
       </c>
       <c r="J82" s="36" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="K82" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L82" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M82" s="59"/>
       <c r="N82" s="59" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="O82" s="59"/>
       <c r="P82" s="59"/>
@@ -7192,17 +7575,17 @@
         <v>81</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C83" s="56" t="s">
         <v>64</v>
       </c>
       <c r="D83" s="24"/>
       <c r="E83" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H83" s="39">
         <v>23575</v>
@@ -7211,16 +7594,18 @@
         <v>252493391</v>
       </c>
       <c r="J83" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L83" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
+      <c r="N83" s="59" t="s">
+        <v>1186</v>
+      </c>
       <c r="O83" s="59"/>
       <c r="P83" s="59"/>
     </row>
@@ -7230,17 +7615,17 @@
         <v>82</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C84" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H84" s="40">
         <v>23529</v>
@@ -7249,16 +7634,18 @@
         <v>165193175</v>
       </c>
       <c r="J84" s="36" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="K84" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L84" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
+      <c r="N84" s="59" t="s">
+        <v>1187</v>
+      </c>
       <c r="O84" s="59"/>
       <c r="P84" s="59"/>
     </row>
@@ -7268,17 +7655,17 @@
         <v>83</v>
       </c>
       <c r="B85" s="58" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C85" s="57" t="s">
         <v>74</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G85" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H85" s="40">
         <v>30520</v>
@@ -7287,17 +7674,17 @@
         <v>411525315</v>
       </c>
       <c r="J85" s="36" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="K85" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L85" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M85" s="59"/>
       <c r="N85" s="59" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="O85" s="59"/>
       <c r="P85" s="59"/>
@@ -7308,17 +7695,17 @@
         <v>84</v>
       </c>
       <c r="B86" s="58" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C86" s="56" t="s">
         <v>58</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G86" s="49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H86" s="39">
         <v>20494</v>
@@ -7327,16 +7714,18 @@
         <v>142609951</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K86" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L86" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
+      <c r="N86" s="59" t="s">
+        <v>1188</v>
+      </c>
       <c r="O86" s="59"/>
       <c r="P86" s="59"/>
     </row>
@@ -7346,17 +7735,17 @@
         <v>85</v>
       </c>
       <c r="B87" s="58" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C87" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D87" s="25"/>
       <c r="E87" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G87" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H87" s="40">
         <v>21502</v>
@@ -7365,16 +7754,18 @@
         <v>192030500</v>
       </c>
       <c r="J87" s="36" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="K87" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L87" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
+      <c r="N87" s="59" t="s">
+        <v>1189</v>
+      </c>
       <c r="O87" s="59"/>
       <c r="P87" s="59"/>
     </row>
@@ -7384,17 +7775,17 @@
         <v>86</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C88" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G88" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H88" s="40">
         <v>20056</v>
@@ -7403,16 +7794,18 @@
         <v>142615432</v>
       </c>
       <c r="J88" s="36" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="K88" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L88" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
+      <c r="N88" s="59" t="s">
+        <v>1190</v>
+      </c>
       <c r="O88" s="59"/>
       <c r="P88" s="59"/>
     </row>
@@ -7422,17 +7815,17 @@
         <v>87</v>
       </c>
       <c r="B89" s="58" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C89" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H89" s="40">
         <v>23577</v>
@@ -7441,16 +7834,18 @@
         <v>915379149</v>
       </c>
       <c r="J89" s="36" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="K89" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L89" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M89" s="59"/>
-      <c r="N89" s="59"/>
+      <c r="N89" s="59" t="s">
+        <v>1191</v>
+      </c>
       <c r="O89" s="59"/>
       <c r="P89" s="59"/>
     </row>
@@ -7460,17 +7855,17 @@
         <v>88</v>
       </c>
       <c r="B90" s="58" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C90" s="57" t="s">
         <v>76</v>
       </c>
       <c r="D90" s="25"/>
       <c r="E90" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G90" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H90" s="40">
         <v>25048</v>
@@ -7479,17 +7874,17 @@
         <v>104557706</v>
       </c>
       <c r="J90" s="36" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="K90" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L90" s="46" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M90" s="59"/>
       <c r="N90" s="59" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="O90" s="59"/>
       <c r="P90" s="59"/>
@@ -7500,36 +7895,36 @@
         <v>89</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C91" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G91" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H91" s="40">
         <v>24784</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J91" s="36" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="K91" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L91" s="47" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M91" s="59"/>
       <c r="N91" s="59" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="O91" s="59"/>
       <c r="P91" s="59"/>
@@ -7540,17 +7935,17 @@
         <v>90</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C92" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D92" s="25"/>
       <c r="E92" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G92" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H92" s="40">
         <v>27428</v>
@@ -7559,16 +7954,18 @@
         <v>159666748</v>
       </c>
       <c r="J92" s="36" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="K92" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L92" s="44" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
+      <c r="N92" s="59" t="s">
+        <v>1192</v>
+      </c>
       <c r="O92" s="59"/>
       <c r="P92" s="59"/>
     </row>
@@ -7578,17 +7975,17 @@
         <v>91</v>
       </c>
       <c r="B93" s="58" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C93" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G93" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H93" s="40">
         <v>27194</v>
@@ -7597,17 +7994,17 @@
         <v>203902009</v>
       </c>
       <c r="J93" s="36" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="K93" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L93" s="44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M93" s="59"/>
       <c r="N93" s="59" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="O93" s="59"/>
       <c r="P93" s="59"/>
@@ -7618,17 +8015,17 @@
         <v>92</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C94" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H94" s="40">
         <v>24743</v>
@@ -7637,17 +8034,17 @@
         <v>149479202</v>
       </c>
       <c r="J94" s="36" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="K94" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L94" s="44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M94" s="59"/>
       <c r="N94" s="59" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="O94" s="59"/>
       <c r="P94" s="59"/>
@@ -7658,17 +8055,17 @@
         <v>93</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C95" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D95" s="25"/>
       <c r="E95" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H95" s="40">
         <v>22984</v>
@@ -7677,16 +8074,18 @@
         <v>165192623</v>
       </c>
       <c r="J95" s="36" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="K95" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L95" s="44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
+      <c r="N95" s="59" t="s">
+        <v>1193</v>
+      </c>
       <c r="O95" s="59"/>
       <c r="P95" s="59"/>
     </row>
@@ -7696,17 +8095,17 @@
         <v>94</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C96" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D96" s="25"/>
       <c r="E96" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G96" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H96" s="40">
         <v>20923</v>
@@ -7715,16 +8114,18 @@
         <v>142615813</v>
       </c>
       <c r="J96" s="36" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="K96" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L96" s="44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
+      <c r="N96" s="59" t="s">
+        <v>1194</v>
+      </c>
       <c r="O96" s="59"/>
       <c r="P96" s="59"/>
     </row>
@@ -7734,17 +8135,17 @@
         <v>95</v>
       </c>
       <c r="B97" s="58" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C97" s="56" t="s">
         <v>55</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G97" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H97" s="39">
         <v>28151</v>
@@ -7753,17 +8154,17 @@
         <v>232531630</v>
       </c>
       <c r="J97" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L97" s="47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M97" s="59"/>
       <c r="N97" s="59" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="O97" s="59"/>
       <c r="P97" s="59"/>
@@ -7774,17 +8175,17 @@
         <v>96</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C98" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D98" s="25"/>
       <c r="E98" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H98" s="40">
         <v>21111</v>
@@ -7793,17 +8194,17 @@
         <v>110856341</v>
       </c>
       <c r="J98" s="36" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L98" s="44" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M98" s="59"/>
       <c r="N98" s="59" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="O98" s="59"/>
       <c r="P98" s="59"/>
@@ -7814,17 +8215,17 @@
         <v>97</v>
       </c>
       <c r="B99" s="58" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C99" s="57" t="s">
         <v>77</v>
       </c>
       <c r="D99" s="25"/>
       <c r="E99" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H99" s="40">
         <v>20558</v>
@@ -7833,13 +8234,13 @@
         <v>142615845</v>
       </c>
       <c r="J99" s="36" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="K99" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L99" s="44" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M99" s="59"/>
       <c r="N99" s="59"/>
@@ -7852,17 +8253,17 @@
         <v>98</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C100" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D100" s="25"/>
       <c r="E100" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G100" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H100" s="40">
         <v>28171</v>
@@ -7871,16 +8272,18 @@
         <v>91666057</v>
       </c>
       <c r="J100" s="36" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="K100" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L100" s="44" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
+      <c r="N100" s="59" t="s">
+        <v>1195</v>
+      </c>
       <c r="O100" s="59"/>
       <c r="P100" s="59"/>
     </row>
@@ -7890,17 +8293,17 @@
         <v>99</v>
       </c>
       <c r="B101" s="58" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C101" s="57" t="s">
         <v>55</v>
       </c>
       <c r="D101" s="25"/>
       <c r="E101" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G101" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H101" s="40">
         <v>21329</v>
@@ -7909,17 +8312,17 @@
         <v>164593766</v>
       </c>
       <c r="J101" s="36" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K101" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L101" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M101" s="59"/>
       <c r="N101" s="59" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="O101" s="59"/>
       <c r="P101" s="59"/>
@@ -7930,14 +8333,14 @@
         <v>100</v>
       </c>
       <c r="B102" s="58" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C102" s="57" t="s">
         <v>78</v>
       </c>
       <c r="D102" s="30"/>
       <c r="E102" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G102" s="49"/>
       <c r="H102" s="40">
@@ -7947,17 +8350,17 @@
         <v>94401507</v>
       </c>
       <c r="J102" s="36" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="K102" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L102" s="44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M102" s="59"/>
       <c r="N102" s="59" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="O102" s="59"/>
       <c r="P102" s="59"/>
@@ -7968,17 +8371,17 @@
         <v>101</v>
       </c>
       <c r="B103" s="58" t="s">
-        <v>753</v>
+        <v>1112</v>
       </c>
       <c r="C103" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="25"/>
       <c r="E103" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G103" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H103" s="40">
         <v>21262</v>
@@ -7987,16 +8390,18 @@
         <v>142610295</v>
       </c>
       <c r="J103" s="36" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="K103" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L103" s="44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
+      <c r="N103" s="59" t="s">
+        <v>1113</v>
+      </c>
       <c r="O103" s="59"/>
       <c r="P103" s="59"/>
     </row>
@@ -8006,17 +8411,17 @@
         <v>102</v>
       </c>
       <c r="B104" s="58" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C104" s="57" t="s">
         <v>79</v>
       </c>
       <c r="D104" s="25"/>
       <c r="E104" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G104" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H104" s="40">
         <v>21214</v>
@@ -8025,17 +8430,17 @@
         <v>142607134</v>
       </c>
       <c r="J104" s="36" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="K104" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L104" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M104" s="59"/>
       <c r="N104" s="59" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="O104" s="59"/>
       <c r="P104" s="59"/>
@@ -8046,17 +8451,17 @@
         <v>103</v>
       </c>
       <c r="B105" s="58" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C105" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H105" s="40">
         <v>24596</v>
@@ -8065,17 +8470,17 @@
         <v>200251344</v>
       </c>
       <c r="J105" s="36" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="K105" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L105" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M105" s="59"/>
       <c r="N105" s="59" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="O105" s="59"/>
       <c r="P105" s="59"/>
@@ -8086,17 +8491,17 @@
         <v>104</v>
       </c>
       <c r="B106" s="58" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C106" s="57" t="s">
         <v>80</v>
       </c>
       <c r="D106" s="25"/>
       <c r="E106" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G106" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H106" s="40">
         <v>25469</v>
@@ -8105,17 +8510,17 @@
         <v>153442470</v>
       </c>
       <c r="J106" s="36" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="K106" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L106" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M106" s="59"/>
       <c r="N106" s="59" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="O106" s="59"/>
       <c r="P106" s="59"/>
@@ -8126,17 +8531,17 @@
         <v>105</v>
       </c>
       <c r="B107" s="58" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C107" s="57" t="s">
         <v>81</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G107" s="51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H107" s="40">
         <v>24466</v>
@@ -8145,17 +8550,17 @@
         <v>177053726</v>
       </c>
       <c r="J107" s="36" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="K107" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L107" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M107" s="59"/>
       <c r="N107" s="59" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="O107" s="59"/>
       <c r="P107" s="59"/>
@@ -8166,17 +8571,17 @@
         <v>106</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C108" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D108" s="25"/>
       <c r="E108" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G108" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H108" s="40">
         <v>28969</v>
@@ -8185,17 +8590,17 @@
         <v>248181759</v>
       </c>
       <c r="J108" s="36" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="K108" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L108" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M108" s="59"/>
       <c r="N108" s="59" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="O108" s="59"/>
       <c r="P108" s="59"/>
@@ -8206,17 +8611,17 @@
         <v>107</v>
       </c>
       <c r="B109" s="58" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C109" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D109" s="25"/>
       <c r="E109" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G109" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H109" s="40">
         <v>23578</v>
@@ -8225,17 +8630,17 @@
         <v>165191011</v>
       </c>
       <c r="J109" s="36" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="K109" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L109" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M109" s="59"/>
       <c r="N109" s="59" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="O109" s="59"/>
       <c r="P109" s="59"/>
@@ -8246,17 +8651,17 @@
         <v>108</v>
       </c>
       <c r="B110" s="58" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C110" s="57" t="s">
         <v>82</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G110" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H110" s="40">
         <v>21909</v>
@@ -8265,17 +8670,17 @@
         <v>154819770</v>
       </c>
       <c r="J110" s="36" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="K110" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L110" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M110" s="59"/>
       <c r="N110" s="59" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="O110" s="59"/>
       <c r="P110" s="59"/>
@@ -8286,17 +8691,17 @@
         <v>109</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C111" s="57" t="s">
         <v>83</v>
       </c>
       <c r="D111" s="25"/>
       <c r="E111" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H111" s="40">
         <v>26472</v>
@@ -8305,17 +8710,17 @@
         <v>143830350</v>
       </c>
       <c r="J111" s="36" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="K111" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L111" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M111" s="59"/>
       <c r="N111" s="59" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="O111" s="59"/>
       <c r="P111" s="59"/>
@@ -8326,17 +8731,17 @@
         <v>110</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C112" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G112" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H112" s="40">
         <v>21101</v>
@@ -8345,16 +8750,18 @@
         <v>142616388</v>
       </c>
       <c r="J112" s="36" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="K112" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L112" s="44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M112" s="59"/>
-      <c r="N112" s="59"/>
+      <c r="N112" s="59" t="s">
+        <v>1116</v>
+      </c>
       <c r="O112" s="59"/>
       <c r="P112" s="59"/>
     </row>
@@ -8364,17 +8771,17 @@
         <v>111</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C113" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D113" s="24"/>
       <c r="E113" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G113" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H113" s="39">
         <v>33396</v>
@@ -8383,16 +8790,18 @@
         <v>412911735</v>
       </c>
       <c r="J113" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K113" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L113" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M113" s="59"/>
-      <c r="N113" s="59"/>
+      <c r="N113" s="59" t="s">
+        <v>1114</v>
+      </c>
       <c r="O113" s="59"/>
       <c r="P113" s="59"/>
     </row>
@@ -8402,17 +8811,17 @@
         <v>112</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C114" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D114" s="25"/>
       <c r="E114" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G114" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H114" s="40">
         <v>21428</v>
@@ -8421,16 +8830,18 @@
         <v>142616435</v>
       </c>
       <c r="J114" s="36" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="K114" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L114" s="44" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M114" s="59"/>
-      <c r="N114" s="59"/>
+      <c r="N114" s="59" t="s">
+        <v>1115</v>
+      </c>
       <c r="O114" s="59"/>
       <c r="P114" s="59"/>
     </row>
@@ -8440,17 +8851,17 @@
         <v>113</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C115" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="25"/>
       <c r="E115" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G115" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H115" s="40">
         <v>21739</v>
@@ -8459,17 +8870,17 @@
         <v>142610613</v>
       </c>
       <c r="J115" s="36" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="K115" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L115" s="44" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M115" s="59"/>
       <c r="N115" s="59" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="O115" s="59"/>
       <c r="P115" s="59"/>
@@ -8480,17 +8891,17 @@
         <v>114</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C116" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="25"/>
       <c r="E116" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G116" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H116" s="40">
         <v>24415</v>
@@ -8499,17 +8910,17 @@
         <v>142610621</v>
       </c>
       <c r="J116" s="36" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="K116" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L116" s="44" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M116" s="59"/>
       <c r="N116" s="59" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O116" s="59"/>
       <c r="P116" s="59"/>
@@ -8520,17 +8931,17 @@
         <v>115</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C117" s="57" t="s">
         <v>51</v>
       </c>
       <c r="D117" s="25"/>
       <c r="E117" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G117" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H117" s="40">
         <v>22992</v>
@@ -8539,13 +8950,13 @@
         <v>142610688</v>
       </c>
       <c r="J117" s="36" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="K117" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L117" s="44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M117" s="59"/>
       <c r="N117" s="59"/>
@@ -8558,17 +8969,17 @@
         <v>116</v>
       </c>
       <c r="B118" s="58" t="s">
-        <v>768</v>
+        <v>1117</v>
       </c>
       <c r="C118" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D118" s="25"/>
       <c r="E118" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G118" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H118" s="40">
         <v>22410</v>
@@ -8577,16 +8988,18 @@
         <v>177053696</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="K118" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L118" s="44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M118" s="59"/>
-      <c r="N118" s="59"/>
+      <c r="N118" s="59" t="s">
+        <v>1118</v>
+      </c>
       <c r="O118" s="59"/>
       <c r="P118" s="59"/>
     </row>
@@ -8596,17 +9009,17 @@
         <v>117</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>769</v>
+        <v>1119</v>
       </c>
       <c r="C119" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D119" s="25"/>
       <c r="E119" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G119" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H119" s="40">
         <v>21814</v>
@@ -8615,16 +9028,18 @@
         <v>156395504</v>
       </c>
       <c r="J119" s="36" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="K119" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L119" s="44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M119" s="59"/>
-      <c r="N119" s="59"/>
+      <c r="N119" s="59" t="s">
+        <v>1120</v>
+      </c>
       <c r="O119" s="59"/>
       <c r="P119" s="59"/>
     </row>
@@ -8634,36 +9049,36 @@
         <v>118</v>
       </c>
       <c r="B120" s="58" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C120" s="57" t="s">
         <v>85</v>
       </c>
       <c r="D120" s="25"/>
       <c r="E120" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G120" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H120" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I120" s="18">
         <v>165193230</v>
       </c>
       <c r="J120" s="36" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="K120" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L120" s="44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M120" s="59"/>
       <c r="N120" s="59" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="O120" s="59"/>
       <c r="P120" s="59"/>
@@ -8674,17 +9089,17 @@
         <v>119</v>
       </c>
       <c r="B121" s="58" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C121" s="57" t="s">
         <v>86</v>
       </c>
       <c r="D121" s="25"/>
       <c r="E121" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H121" s="40">
         <v>21618</v>
@@ -8693,17 +9108,17 @@
         <v>142607175</v>
       </c>
       <c r="J121" s="36" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="K121" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L121" s="47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M121" s="59"/>
       <c r="N121" s="59" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="O121" s="59"/>
       <c r="P121" s="59"/>
@@ -8714,17 +9129,17 @@
         <v>120</v>
       </c>
       <c r="B122" s="58" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C122" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D122" s="25"/>
       <c r="E122" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G122" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H122" s="40">
         <v>33560</v>
@@ -8733,16 +9148,18 @@
         <v>317794330</v>
       </c>
       <c r="J122" s="36" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="K122" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L122" s="44" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M122" s="59"/>
-      <c r="N122" s="59"/>
+      <c r="N122" s="59" t="s">
+        <v>1196</v>
+      </c>
       <c r="O122" s="59"/>
       <c r="P122" s="59"/>
     </row>
@@ -8752,17 +9169,17 @@
         <v>121</v>
       </c>
       <c r="B123" s="58" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C123" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D123" s="25"/>
       <c r="E123" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G123" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H123" s="40">
         <v>28548</v>
@@ -8771,16 +9188,18 @@
         <v>296135440</v>
       </c>
       <c r="J123" s="36" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="K123" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L123" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M123" s="59"/>
-      <c r="N123" s="59"/>
+      <c r="N123" s="59" t="s">
+        <v>1121</v>
+      </c>
       <c r="O123" s="59"/>
       <c r="P123" s="59"/>
     </row>
@@ -8790,17 +9209,17 @@
         <v>122</v>
       </c>
       <c r="B124" s="58" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C124" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D124" s="25"/>
       <c r="E124" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G124" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H124" s="40">
         <v>21148</v>
@@ -8809,16 +9228,18 @@
         <v>125523998</v>
       </c>
       <c r="J124" s="36" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="K124" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L124" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M124" s="59"/>
-      <c r="N124" s="59"/>
+      <c r="N124" s="59" t="s">
+        <v>1122</v>
+      </c>
       <c r="O124" s="59"/>
       <c r="P124" s="59"/>
     </row>
@@ -8828,17 +9249,17 @@
         <v>123</v>
       </c>
       <c r="B125" s="58" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C125" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D125" s="25"/>
       <c r="E125" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G125" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H125" s="40">
         <v>21752</v>
@@ -8847,17 +9268,17 @@
         <v>141458569</v>
       </c>
       <c r="J125" s="36" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="K125" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L125" s="44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M125" s="59"/>
       <c r="N125" s="59" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="O125" s="59"/>
       <c r="P125" s="59"/>
@@ -8868,17 +9289,17 @@
         <v>124</v>
       </c>
       <c r="B126" s="58" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C126" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G126" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H126" s="40">
         <v>23145</v>
@@ -8887,17 +9308,17 @@
         <v>170305582</v>
       </c>
       <c r="J126" s="36" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="K126" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L126" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M126" s="59"/>
       <c r="N126" s="59" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="O126" s="59"/>
       <c r="P126" s="59"/>
@@ -8908,17 +9329,17 @@
         <v>125</v>
       </c>
       <c r="B127" s="58" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C127" s="57" t="s">
         <v>88</v>
       </c>
       <c r="D127" s="25"/>
       <c r="E127" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G127" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H127" s="40">
         <v>23493</v>
@@ -8927,17 +9348,17 @@
         <v>164593790</v>
       </c>
       <c r="J127" s="36" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="K127" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L127" s="46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M127" s="59"/>
       <c r="N127" s="59" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="O127" s="59"/>
       <c r="P127" s="59"/>
@@ -8948,17 +9369,17 @@
         <v>126</v>
       </c>
       <c r="B128" s="58" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C128" s="57" t="s">
         <v>89</v>
       </c>
       <c r="D128" s="25"/>
       <c r="E128" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G128" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H128" s="40">
         <v>24598</v>
@@ -8967,17 +9388,17 @@
         <v>164593790</v>
       </c>
       <c r="J128" s="36" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="K128" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L128" s="46" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M128" s="59"/>
       <c r="N128" s="59" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="O128" s="59"/>
       <c r="P128" s="59"/>
@@ -8988,17 +9409,17 @@
         <v>127</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C129" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="25"/>
       <c r="E129" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G129" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H129" s="40">
         <v>31646</v>
@@ -9007,15 +9428,17 @@
         <v>303067431</v>
       </c>
       <c r="J129" s="36" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="K129" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L129" s="44" t="s">
-        <v>613</v>
-      </c>
-      <c r="M129" s="59"/>
+        <v>612</v>
+      </c>
+      <c r="M129" s="59" t="s">
+        <v>1198</v>
+      </c>
       <c r="N129" s="59"/>
       <c r="O129" s="59"/>
       <c r="P129" s="59"/>
@@ -9026,17 +9449,17 @@
         <v>128</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C130" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G130" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H130" s="40">
         <v>21658</v>
@@ -9045,16 +9468,18 @@
         <v>142616790</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="K130" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L130" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M130" s="59"/>
-      <c r="N130" s="59"/>
+      <c r="N130" s="59" t="s">
+        <v>1123</v>
+      </c>
       <c r="O130" s="59"/>
       <c r="P130" s="59"/>
     </row>
@@ -9064,17 +9489,17 @@
         <v>129</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>90</v>
       </c>
       <c r="D131" s="25"/>
       <c r="E131" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H131" s="40">
         <v>23552</v>
@@ -9083,17 +9508,17 @@
         <v>165193255</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="K131" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L131" s="44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M131" s="59"/>
       <c r="N131" s="59" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="O131" s="59"/>
       <c r="P131" s="59"/>
@@ -9104,17 +9529,17 @@
         <v>130</v>
       </c>
       <c r="B132" s="58" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D132" s="25"/>
       <c r="E132" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G132" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H132" s="40">
         <v>31695</v>
@@ -9123,17 +9548,17 @@
         <v>264316044</v>
       </c>
       <c r="J132" s="36" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="K132" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L132" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M132" s="59"/>
       <c r="N132" s="59" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="O132" s="59"/>
       <c r="P132" s="59"/>
@@ -9144,17 +9569,17 @@
         <v>131</v>
       </c>
       <c r="B133" s="58" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C133" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D133" s="25"/>
       <c r="E133" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G133" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H133" s="40">
         <v>20755</v>
@@ -9163,16 +9588,18 @@
         <v>165192680</v>
       </c>
       <c r="J133" s="36" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="K133" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L133" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M133" s="59"/>
-      <c r="N133" s="59"/>
+      <c r="N133" s="59" t="s">
+        <v>1124</v>
+      </c>
       <c r="O133" s="59"/>
       <c r="P133" s="59"/>
     </row>
@@ -9182,17 +9609,17 @@
         <v>132</v>
       </c>
       <c r="B134" s="58" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C134" s="57" t="s">
         <v>91</v>
       </c>
       <c r="D134" s="25"/>
       <c r="E134" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G134" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H134" s="40">
         <v>26783</v>
@@ -9201,17 +9628,19 @@
         <v>269534190</v>
       </c>
       <c r="J134" s="36" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="K134" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L134" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="M134" s="59"/>
+        <v>617</v>
+      </c>
+      <c r="M134" s="59" t="s">
+        <v>1199</v>
+      </c>
       <c r="N134" s="59" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="O134" s="59"/>
       <c r="P134" s="59"/>
@@ -9222,17 +9651,17 @@
         <v>133</v>
       </c>
       <c r="B135" s="58" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C135" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D135" s="25"/>
       <c r="E135" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G135" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H135" s="40">
         <v>25858</v>
@@ -9241,17 +9670,19 @@
         <v>248214633</v>
       </c>
       <c r="J135" s="36" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="K135" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L135" s="44" t="s">
-        <v>619</v>
-      </c>
-      <c r="M135" s="59"/>
+        <v>618</v>
+      </c>
+      <c r="M135" s="59" t="s">
+        <v>1200</v>
+      </c>
       <c r="N135" s="59" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="O135" s="59"/>
       <c r="P135" s="59"/>
@@ -9262,17 +9693,17 @@
         <v>134</v>
       </c>
       <c r="B136" s="58" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C136" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D136" s="25"/>
       <c r="E136" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G136" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H136" s="40">
         <v>23147</v>
@@ -9281,17 +9712,17 @@
         <v>192042102</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="K136" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L136" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M136" s="59"/>
       <c r="N136" s="59" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="O136" s="59"/>
       <c r="P136" s="59"/>
@@ -9302,17 +9733,17 @@
         <v>135</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C137" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="25"/>
       <c r="E137" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H137" s="40">
         <v>26605</v>
@@ -9321,16 +9752,18 @@
         <v>935044259</v>
       </c>
       <c r="J137" s="36" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="K137" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L137" s="44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M137" s="59"/>
-      <c r="N137" s="59"/>
+      <c r="N137" s="59" t="s">
+        <v>1125</v>
+      </c>
       <c r="O137" s="59"/>
       <c r="P137" s="59"/>
     </row>
@@ -9340,17 +9773,17 @@
         <v>136</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C138" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D138" s="25"/>
       <c r="E138" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G138" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H138" s="40">
         <v>28410</v>
@@ -9359,17 +9792,17 @@
         <v>205966614</v>
       </c>
       <c r="J138" s="36" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="K138" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L138" s="44" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M138" s="59"/>
       <c r="N138" s="59" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="O138" s="59"/>
       <c r="P138" s="59"/>
@@ -9380,17 +9813,17 @@
         <v>137</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C139" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D139" s="25"/>
       <c r="E139" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H139" s="40">
         <v>27517</v>
@@ -9399,16 +9832,18 @@
         <v>265386673</v>
       </c>
       <c r="J139" s="36" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="K139" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L139" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M139" s="59"/>
-      <c r="N139" s="59"/>
+      <c r="N139" s="59" t="s">
+        <v>1126</v>
+      </c>
       <c r="O139" s="59"/>
       <c r="P139" s="59"/>
     </row>
@@ -9418,17 +9853,17 @@
         <v>138</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C140" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D140" s="25"/>
       <c r="E140" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G140" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H140" s="40">
         <v>29052</v>
@@ -9437,16 +9872,18 @@
         <v>412130166</v>
       </c>
       <c r="J140" s="36" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="K140" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L140" s="44" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M140" s="59"/>
-      <c r="N140" s="59"/>
+      <c r="N140" s="59" t="s">
+        <v>1127</v>
+      </c>
       <c r="O140" s="59"/>
       <c r="P140" s="59"/>
     </row>
@@ -9456,17 +9893,17 @@
         <v>139</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C141" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D141" s="25"/>
       <c r="E141" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G141" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H141" s="40">
         <v>21149</v>
@@ -9475,16 +9912,18 @@
         <v>142617434</v>
       </c>
       <c r="J141" s="36" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="K141" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L141" s="44" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M141" s="59"/>
-      <c r="N141" s="59"/>
+      <c r="N141" s="59" t="s">
+        <v>1128</v>
+      </c>
       <c r="O141" s="59"/>
       <c r="P141" s="59"/>
     </row>
@@ -9494,17 +9933,17 @@
         <v>140</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C142" s="57" t="s">
         <v>92</v>
       </c>
       <c r="D142" s="25"/>
       <c r="E142" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H142" s="40">
         <v>21655</v>
@@ -9513,16 +9952,20 @@
         <v>112143363</v>
       </c>
       <c r="J142" s="36" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="K142" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L142" s="44" t="s">
-        <v>626</v>
-      </c>
-      <c r="M142" s="59"/>
-      <c r="N142" s="59"/>
+        <v>625</v>
+      </c>
+      <c r="M142" s="59" t="s">
+        <v>1201</v>
+      </c>
+      <c r="N142" s="59" t="s">
+        <v>1129</v>
+      </c>
       <c r="O142" s="59"/>
       <c r="P142" s="59"/>
     </row>
@@ -9532,17 +9975,17 @@
         <v>141</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C143" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D143" s="25"/>
       <c r="E143" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G143" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H143" s="40">
         <v>27811</v>
@@ -9551,16 +9994,18 @@
         <v>220553319</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="K143" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L143" s="44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M143" s="59"/>
-      <c r="N143" s="59"/>
+      <c r="N143" s="59" t="s">
+        <v>1130</v>
+      </c>
       <c r="O143" s="59"/>
       <c r="P143" s="59"/>
     </row>
@@ -9570,17 +10015,17 @@
         <v>142</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C144" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D144" s="25"/>
       <c r="E144" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H144" s="40">
         <v>20130</v>
@@ -9589,16 +10034,18 @@
         <v>161279941</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="K144" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L144" s="44" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M144" s="59"/>
-      <c r="N144" s="59"/>
+      <c r="N144" s="59" t="s">
+        <v>1131</v>
+      </c>
       <c r="O144" s="59"/>
       <c r="P144" s="59"/>
     </row>
@@ -9608,17 +10055,17 @@
         <v>143</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C145" s="57" t="s">
         <v>93</v>
       </c>
       <c r="D145" s="25"/>
       <c r="E145" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G145" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H145" s="40">
         <v>21853</v>
@@ -9627,17 +10074,17 @@
         <v>165193271</v>
       </c>
       <c r="J145" s="36" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="K145" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L145" s="44" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M145" s="59"/>
       <c r="N145" s="59" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="O145" s="59"/>
       <c r="P145" s="59"/>
@@ -9648,17 +10095,17 @@
         <v>144</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C146" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D146" s="25"/>
       <c r="E146" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G146" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H146" s="40">
         <v>33346</v>
@@ -9667,17 +10114,19 @@
         <v>438655835</v>
       </c>
       <c r="J146" s="36" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="K146" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L146" s="44" t="s">
-        <v>630</v>
-      </c>
-      <c r="M146" s="59"/>
+        <v>629</v>
+      </c>
+      <c r="M146" s="59" t="s">
+        <v>1202</v>
+      </c>
       <c r="N146" s="59" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="O146" s="59"/>
       <c r="P146" s="59"/>
@@ -9688,17 +10137,17 @@
         <v>145</v>
       </c>
       <c r="B147" s="58" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C147" s="57" t="s">
         <v>94</v>
       </c>
       <c r="D147" s="25"/>
       <c r="E147" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G147" s="51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H147" s="40">
         <v>33162</v>
@@ -9707,17 +10156,17 @@
         <v>428958865</v>
       </c>
       <c r="J147" s="36" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="K147" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L147" s="44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M147" s="59"/>
       <c r="N147" s="59" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="O147" s="59"/>
       <c r="P147" s="59"/>
@@ -9728,17 +10177,17 @@
         <v>146</v>
       </c>
       <c r="B148" s="58" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C148" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D148" s="25"/>
       <c r="E148" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G148" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H148" s="40">
         <v>21142</v>
@@ -9747,16 +10196,18 @@
         <v>142617676</v>
       </c>
       <c r="J148" s="36" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="K148" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L148" s="44" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M148" s="59"/>
-      <c r="N148" s="59"/>
+      <c r="N148" s="59" t="s">
+        <v>1132</v>
+      </c>
       <c r="O148" s="59"/>
       <c r="P148" s="59"/>
     </row>
@@ -9766,17 +10217,17 @@
         <v>147</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C149" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="25"/>
       <c r="E149" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H149" s="40">
         <v>20345</v>
@@ -9785,16 +10236,18 @@
         <v>138834350</v>
       </c>
       <c r="J149" s="36" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="K149" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L149" s="44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M149" s="59"/>
-      <c r="N149" s="59"/>
+      <c r="N149" s="59" t="s">
+        <v>1133</v>
+      </c>
       <c r="O149" s="59"/>
       <c r="P149" s="59"/>
     </row>
@@ -9804,17 +10257,17 @@
         <v>148</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C150" s="57" t="s">
         <v>65</v>
       </c>
       <c r="D150" s="25"/>
       <c r="E150" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G150" s="51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H150" s="40">
         <v>23170</v>
@@ -9823,17 +10276,17 @@
         <v>138628889</v>
       </c>
       <c r="J150" s="36" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="K150" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L150" s="44" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M150" s="59"/>
       <c r="N150" s="59" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="O150" s="59"/>
       <c r="P150" s="59"/>
@@ -9844,17 +10297,17 @@
         <v>149</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C151" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D151" s="25"/>
       <c r="E151" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G151" s="51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H151" s="40">
         <v>20752</v>
@@ -9863,16 +10316,18 @@
         <v>161279926</v>
       </c>
       <c r="J151" s="36" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="K151" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L151" s="44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M151" s="59"/>
-      <c r="N151" s="59"/>
+      <c r="N151" s="59" t="s">
+        <v>1134</v>
+      </c>
       <c r="O151" s="59"/>
       <c r="P151" s="59"/>
     </row>
@@ -9882,17 +10337,17 @@
         <v>150</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C152" s="57" t="s">
         <v>95</v>
       </c>
       <c r="D152" s="25"/>
       <c r="E152" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G152" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H152" s="40">
         <v>33503</v>
@@ -9901,16 +10356,18 @@
         <v>310288826</v>
       </c>
       <c r="J152" s="36" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="K152" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L152" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M152" s="59"/>
-      <c r="N152" s="59"/>
+      <c r="N152" s="59" t="s">
+        <v>1135</v>
+      </c>
       <c r="O152" s="59"/>
       <c r="P152" s="59"/>
     </row>
@@ -9920,17 +10377,17 @@
         <v>151</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C153" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D153" s="25"/>
       <c r="E153" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G153" s="51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H153" s="40">
         <v>20324</v>
@@ -9939,16 +10396,20 @@
         <v>192041838</v>
       </c>
       <c r="J153" s="36" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="K153" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L153" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="M153" s="59"/>
-      <c r="N153" s="59"/>
+        <v>636</v>
+      </c>
+      <c r="M153" s="59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N153" s="59" t="s">
+        <v>1136</v>
+      </c>
       <c r="O153" s="59"/>
       <c r="P153" s="59"/>
     </row>
@@ -9958,17 +10419,17 @@
         <v>152</v>
       </c>
       <c r="B154" s="58" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C154" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D154" s="25"/>
       <c r="E154" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G154" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H154" s="40">
         <v>23586</v>
@@ -9977,17 +10438,19 @@
         <v>165191801</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="K154" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L154" s="44" t="s">
-        <v>638</v>
-      </c>
-      <c r="M154" s="59"/>
+        <v>637</v>
+      </c>
+      <c r="M154" s="59" t="s">
+        <v>1204</v>
+      </c>
       <c r="N154" s="59" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="O154" s="59"/>
       <c r="P154" s="59"/>
@@ -9998,17 +10461,17 @@
         <v>153</v>
       </c>
       <c r="B155" s="58" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C155" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D155" s="25"/>
       <c r="E155" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G155" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H155" s="40">
         <v>32468</v>
@@ -10017,16 +10480,18 @@
         <v>433670585</v>
       </c>
       <c r="J155" s="36" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="K155" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L155" s="44" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M155" s="59"/>
-      <c r="N155" s="59"/>
+      <c r="N155" s="59" t="s">
+        <v>1137</v>
+      </c>
       <c r="O155" s="59"/>
       <c r="P155" s="59"/>
     </row>
@@ -10036,17 +10501,17 @@
         <v>154</v>
       </c>
       <c r="B156" s="58" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C156" s="57" t="s">
         <v>96</v>
       </c>
       <c r="D156" s="25"/>
       <c r="E156" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G156" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H156" s="40">
         <v>23207</v>
@@ -10055,17 +10520,17 @@
         <v>142611583</v>
       </c>
       <c r="J156" s="36" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="K156" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L156" s="44" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M156" s="59"/>
       <c r="N156" s="59" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="O156" s="59"/>
       <c r="P156" s="59"/>
@@ -10076,17 +10541,17 @@
         <v>155</v>
       </c>
       <c r="B157" s="58" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C157" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D157" s="25"/>
       <c r="E157" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G157" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H157" s="40">
         <v>22264</v>
@@ -10095,17 +10560,17 @@
         <v>150170247</v>
       </c>
       <c r="J157" s="36" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="K157" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L157" s="44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M157" s="59"/>
       <c r="N157" s="59" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="O157" s="59"/>
       <c r="P157" s="59"/>
@@ -10116,17 +10581,17 @@
         <v>156</v>
       </c>
       <c r="B158" s="58" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C158" s="57" t="s">
         <v>97</v>
       </c>
       <c r="D158" s="25"/>
       <c r="E158" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G158" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H158" s="40">
         <v>20359</v>
@@ -10135,16 +10600,18 @@
         <v>192030462</v>
       </c>
       <c r="J158" s="36" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="K158" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L158" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M158" s="59"/>
-      <c r="N158" s="59"/>
+      <c r="N158" s="59" t="s">
+        <v>1138</v>
+      </c>
       <c r="O158" s="59"/>
       <c r="P158" s="59"/>
     </row>
@@ -10154,17 +10621,17 @@
         <v>157</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="C159" s="57" t="s">
         <v>98</v>
       </c>
       <c r="D159" s="25"/>
       <c r="E159" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G159" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H159" s="40">
         <v>35281</v>
@@ -10173,17 +10640,19 @@
         <v>912585400</v>
       </c>
       <c r="J159" s="36" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="K159" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L159" s="44" t="s">
-        <v>643</v>
-      </c>
-      <c r="M159" s="59"/>
+        <v>642</v>
+      </c>
+      <c r="M159" s="59" t="s">
+        <v>1205</v>
+      </c>
       <c r="N159" s="59" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="O159" s="59"/>
       <c r="P159" s="59"/>
@@ -10194,17 +10663,17 @@
         <v>158</v>
       </c>
       <c r="B160" s="58" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C160" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D160" s="25"/>
       <c r="E160" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G160" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H160" s="40">
         <v>29083</v>
@@ -10213,17 +10682,19 @@
         <v>922652527</v>
       </c>
       <c r="J160" s="36" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="K160" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L160" s="44" t="s">
-        <v>644</v>
-      </c>
-      <c r="M160" s="59"/>
+        <v>643</v>
+      </c>
+      <c r="M160" s="59" t="s">
+        <v>1206</v>
+      </c>
       <c r="N160" s="59" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="O160" s="59"/>
       <c r="P160" s="59"/>
@@ -10234,17 +10705,17 @@
         <v>159</v>
       </c>
       <c r="B161" s="58" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C161" s="57" t="s">
         <v>52</v>
       </c>
       <c r="D161" s="25"/>
       <c r="E161" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G161" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H161" s="40">
         <v>31236</v>
@@ -10253,17 +10724,17 @@
         <v>411719906</v>
       </c>
       <c r="J161" s="36" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="K161" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L161" s="44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M161" s="59"/>
       <c r="N161" s="59" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="O161" s="59"/>
       <c r="P161" s="59"/>
@@ -10274,17 +10745,17 @@
         <v>160</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C162" s="57" t="s">
         <v>88</v>
       </c>
       <c r="D162" s="25"/>
       <c r="E162" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G162" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H162" s="40">
         <v>22322</v>
@@ -10293,16 +10764,18 @@
         <v>144936932</v>
       </c>
       <c r="J162" s="36" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="K162" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L162" s="44" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M162" s="59"/>
-      <c r="N162" s="59"/>
+      <c r="N162" s="59" t="s">
+        <v>1139</v>
+      </c>
       <c r="O162" s="59"/>
       <c r="P162" s="59"/>
     </row>
@@ -10312,17 +10785,17 @@
         <v>161</v>
       </c>
       <c r="B163" s="58" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C163" s="57" t="s">
         <v>99</v>
       </c>
       <c r="D163" s="25"/>
       <c r="E163" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G163" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H163" s="40">
         <v>20392</v>
@@ -10331,17 +10804,17 @@
         <v>165190621</v>
       </c>
       <c r="J163" s="36" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="K163" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L163" s="44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M163" s="59"/>
       <c r="N163" s="59" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="O163" s="59"/>
       <c r="P163" s="59"/>
@@ -10352,17 +10825,17 @@
         <v>162</v>
       </c>
       <c r="B164" s="58" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C164" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="25"/>
       <c r="E164" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G164" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H164" s="40">
         <v>22409</v>
@@ -10371,17 +10844,17 @@
         <v>165191935</v>
       </c>
       <c r="J164" s="36" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="K164" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L164" s="46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M164" s="59"/>
       <c r="N164" s="59" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="O164" s="59"/>
       <c r="P164" s="59"/>
@@ -10392,17 +10865,17 @@
         <v>163</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C165" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D165" s="25"/>
       <c r="E165" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G165" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H165" s="40">
         <v>22216</v>
@@ -10411,17 +10884,19 @@
         <v>171697505</v>
       </c>
       <c r="J165" s="36" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="K165" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L165" s="44" t="s">
-        <v>649</v>
-      </c>
-      <c r="M165" s="59"/>
+        <v>648</v>
+      </c>
+      <c r="M165" s="59" t="s">
+        <v>1207</v>
+      </c>
       <c r="N165" s="59" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="O165" s="59"/>
       <c r="P165" s="59"/>
@@ -10432,17 +10907,17 @@
         <v>164</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C166" s="57" t="s">
         <v>56</v>
       </c>
       <c r="D166" s="25"/>
       <c r="E166" s="53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G166" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H166" s="40">
         <v>20809</v>
@@ -10451,17 +10926,17 @@
         <v>142607350</v>
       </c>
       <c r="J166" s="36" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="K166" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L166" s="44" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M166" s="59"/>
       <c r="N166" s="59" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="O166" s="59"/>
       <c r="P166" s="59"/>
@@ -10472,17 +10947,17 @@
         <v>165</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C167" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D167" s="25"/>
       <c r="E167" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G167" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H167" s="40">
         <v>33563</v>
@@ -10491,17 +10966,19 @@
         <v>317600375</v>
       </c>
       <c r="J167" s="36" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="K167" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L167" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="M167" s="59"/>
+        <v>650</v>
+      </c>
+      <c r="M167" s="59" t="s">
+        <v>1208</v>
+      </c>
       <c r="N167" s="59" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="O167" s="59"/>
       <c r="P167" s="59"/>
@@ -10512,17 +10989,17 @@
         <v>166</v>
       </c>
       <c r="B168" s="58" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C168" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D168" s="25"/>
       <c r="E168" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G168" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H168" s="40">
         <v>22014</v>
@@ -10531,16 +11008,18 @@
         <v>914202196</v>
       </c>
       <c r="J168" s="36" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="K168" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L168" s="44" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
+      <c r="N168" s="59" t="s">
+        <v>1140</v>
+      </c>
       <c r="O168" s="59"/>
       <c r="P168" s="59"/>
     </row>
@@ -10550,17 +11029,17 @@
         <v>167</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C169" s="57" t="s">
         <v>80</v>
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G169" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H169" s="41">
         <v>24273</v>
@@ -10569,17 +11048,17 @@
         <v>245734363</v>
       </c>
       <c r="J169" s="38" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="K169" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L169" s="48" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M169" s="59"/>
       <c r="N169" s="59" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="O169" s="59"/>
       <c r="P169" s="59"/>
@@ -10590,17 +11069,17 @@
         <v>168</v>
       </c>
       <c r="B170" s="58" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C170" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D170" s="24"/>
       <c r="E170" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G170" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H170" s="39">
         <v>31978</v>
@@ -10609,17 +11088,19 @@
         <v>477948074</v>
       </c>
       <c r="J170" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K170" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L170" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="M170" s="59"/>
+        <v>653</v>
+      </c>
+      <c r="M170" s="59" t="s">
+        <v>1209</v>
+      </c>
       <c r="N170" s="59" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="O170" s="59"/>
       <c r="P170" s="59"/>
@@ -10630,17 +11111,17 @@
         <v>169</v>
       </c>
       <c r="B171" s="58" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C171" s="57" t="s">
         <v>100</v>
       </c>
       <c r="D171" s="25"/>
       <c r="E171" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G171" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H171" s="40">
         <v>28370</v>
@@ -10649,17 +11130,17 @@
         <v>210072807</v>
       </c>
       <c r="J171" s="36" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="K171" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L171" s="44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M171" s="59"/>
       <c r="N171" s="59" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="O171" s="59"/>
       <c r="P171" s="59"/>
@@ -10670,17 +11151,17 @@
         <v>170</v>
       </c>
       <c r="B172" s="58" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C172" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D172" s="25"/>
       <c r="E172" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H172" s="40">
         <v>26263</v>
@@ -10689,16 +11170,18 @@
         <v>196215555</v>
       </c>
       <c r="J172" s="36" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="K172" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L172" s="44" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M172" s="59"/>
-      <c r="N172" s="59"/>
+      <c r="N172" s="59" t="s">
+        <v>1141</v>
+      </c>
       <c r="O172" s="59"/>
       <c r="P172" s="59"/>
     </row>
@@ -10708,17 +11191,17 @@
         <v>171</v>
       </c>
       <c r="B173" s="58" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C173" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D173" s="25"/>
       <c r="E173" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H173" s="40">
         <v>21021</v>
@@ -10727,17 +11210,19 @@
         <v>142618890</v>
       </c>
       <c r="J173" s="36" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="K173" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L173" s="44" t="s">
-        <v>657</v>
-      </c>
-      <c r="M173" s="59"/>
+        <v>656</v>
+      </c>
+      <c r="M173" s="59" t="s">
+        <v>1210</v>
+      </c>
       <c r="N173" s="59" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="O173" s="59"/>
       <c r="P173" s="59"/>
@@ -10748,17 +11233,17 @@
         <v>172</v>
       </c>
       <c r="B174" s="58" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C174" s="57" t="s">
         <v>47</v>
       </c>
       <c r="D174" s="25"/>
       <c r="E174" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G174" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H174" s="40">
         <v>28746</v>
@@ -10767,16 +11252,18 @@
         <v>154885054</v>
       </c>
       <c r="J174" s="36" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="K174" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L174" s="44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M174" s="59"/>
-      <c r="N174" s="59"/>
+      <c r="N174" s="59" t="s">
+        <v>1142</v>
+      </c>
       <c r="O174" s="59"/>
       <c r="P174" s="59"/>
     </row>
@@ -10786,17 +11273,17 @@
         <v>173</v>
       </c>
       <c r="B175" s="58" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C175" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D175" s="25"/>
       <c r="E175" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H175" s="40">
         <v>21341</v>
@@ -10805,16 +11292,18 @@
         <v>138834368</v>
       </c>
       <c r="J175" s="36" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="K175" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L175" s="44" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M175" s="59"/>
-      <c r="N175" s="59"/>
+      <c r="N175" s="59" t="s">
+        <v>1143</v>
+      </c>
       <c r="O175" s="59"/>
       <c r="P175" s="59"/>
     </row>
@@ -10824,17 +11313,17 @@
         <v>174</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C176" s="57" t="s">
         <v>33</v>
       </c>
       <c r="D176" s="25"/>
       <c r="E176" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H176" s="40">
         <v>26121</v>
@@ -10843,17 +11332,17 @@
         <v>220936904</v>
       </c>
       <c r="J176" s="36" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="K176" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L176" s="44" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M176" s="59"/>
       <c r="N176" s="59" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="O176" s="59"/>
       <c r="P176" s="59"/>
@@ -10864,17 +11353,17 @@
         <v>175</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C177" s="57" t="s">
         <v>44</v>
       </c>
       <c r="D177" s="25"/>
       <c r="E177" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H177" s="40">
         <v>23806</v>
@@ -10883,16 +11372,18 @@
         <v>133999857</v>
       </c>
       <c r="J177" s="36" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="K177" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L177" s="44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M177" s="59"/>
-      <c r="N177" s="59"/>
+      <c r="N177" s="59" t="s">
+        <v>1144</v>
+      </c>
       <c r="O177" s="59"/>
       <c r="P177" s="59"/>
     </row>
@@ -10902,17 +11393,17 @@
         <v>176</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>827</v>
+        <v>1146</v>
       </c>
       <c r="C178" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D178" s="25"/>
       <c r="E178" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G178" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H178" s="40">
         <v>26149</v>
@@ -10921,16 +11412,20 @@
         <v>290418797</v>
       </c>
       <c r="J178" s="36" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="K178" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L178" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="M178" s="59"/>
-      <c r="N178" s="59"/>
+        <v>661</v>
+      </c>
+      <c r="M178" s="59" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N178" s="59" t="s">
+        <v>1145</v>
+      </c>
       <c r="O178" s="59"/>
       <c r="P178" s="59"/>
     </row>
@@ -10940,17 +11435,17 @@
         <v>177</v>
       </c>
       <c r="B179" s="58" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C179" s="57" t="s">
         <v>101</v>
       </c>
       <c r="D179" s="25"/>
       <c r="E179" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G179" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H179" s="40">
         <v>20708</v>
@@ -10959,16 +11454,20 @@
         <v>142619084</v>
       </c>
       <c r="J179" s="36" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="K179" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L179" s="44" t="s">
-        <v>663</v>
-      </c>
-      <c r="M179" s="59"/>
-      <c r="N179" s="59"/>
+        <v>662</v>
+      </c>
+      <c r="M179" s="59" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N179" s="59" t="s">
+        <v>1147</v>
+      </c>
       <c r="O179" s="59"/>
       <c r="P179" s="59"/>
     </row>
@@ -10978,17 +11477,17 @@
         <v>178</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C180" s="57" t="s">
         <v>45</v>
       </c>
       <c r="D180" s="25"/>
       <c r="E180" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G180" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H180" s="40">
         <v>22745</v>
@@ -10997,17 +11496,17 @@
         <v>165190800</v>
       </c>
       <c r="J180" s="36" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="K180" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L180" s="44" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M180" s="59"/>
       <c r="N180" s="59" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="O180" s="59"/>
       <c r="P180" s="59"/>
@@ -11018,17 +11517,17 @@
         <v>179</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C181" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D181" s="25"/>
       <c r="E181" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G181" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H181" s="40">
         <v>21992</v>
@@ -11037,16 +11536,18 @@
         <v>165192729</v>
       </c>
       <c r="J181" s="36" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="K181" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L181" s="44" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M181" s="59"/>
-      <c r="N181" s="59"/>
+      <c r="N181" s="59" t="s">
+        <v>1148</v>
+      </c>
       <c r="O181" s="59"/>
       <c r="P181" s="59"/>
     </row>
@@ -11056,17 +11557,17 @@
         <v>180</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C182" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D182" s="25"/>
       <c r="E182" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G182" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H182" s="40">
         <v>23884</v>
@@ -11075,16 +11576,18 @@
         <v>142619228</v>
       </c>
       <c r="J182" s="36" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="K182" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L182" s="44" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M182" s="59"/>
-      <c r="N182" s="59"/>
+      <c r="N182" s="59" t="s">
+        <v>1149</v>
+      </c>
       <c r="O182" s="59"/>
       <c r="P182" s="59"/>
     </row>
@@ -11094,17 +11597,17 @@
         <v>181</v>
       </c>
       <c r="B183" s="58" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="C183" s="57" t="s">
         <v>102</v>
       </c>
       <c r="D183" s="25"/>
       <c r="E183" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G183" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H183" s="40">
         <v>29976</v>
@@ -11113,17 +11616,17 @@
         <v>233070155</v>
       </c>
       <c r="J183" s="36" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="K183" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L183" s="44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M183" s="59"/>
       <c r="N183" s="59" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="O183" s="59"/>
       <c r="P183" s="59"/>
@@ -11134,17 +11637,17 @@
         <v>182</v>
       </c>
       <c r="B184" s="58" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C184" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D184" s="25"/>
       <c r="E184" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G184" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H184" s="40">
         <v>28511</v>
@@ -11153,17 +11656,17 @@
         <v>275270443</v>
       </c>
       <c r="J184" s="36" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="K184" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L184" s="44" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M184" s="59"/>
       <c r="N184" s="59" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="O184" s="59"/>
       <c r="P184" s="59"/>
@@ -11174,17 +11677,17 @@
         <v>183</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="C185" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D185" s="25"/>
       <c r="E185" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G185" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H185" s="40">
         <v>24743</v>
@@ -11193,17 +11696,19 @@
         <v>2204928</v>
       </c>
       <c r="J185" s="36" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="K185" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L185" s="44" t="s">
-        <v>669</v>
-      </c>
-      <c r="M185" s="59"/>
+        <v>668</v>
+      </c>
+      <c r="M185" s="59" t="s">
+        <v>1213</v>
+      </c>
       <c r="N185" s="59" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="O185" s="59"/>
       <c r="P185" s="59"/>
@@ -11214,17 +11719,17 @@
         <v>184</v>
       </c>
       <c r="B186" s="58" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C186" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D186" s="25"/>
       <c r="E186" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G186" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H186" s="40">
         <v>24712</v>
@@ -11233,17 +11738,17 @@
         <v>170754585</v>
       </c>
       <c r="J186" s="36" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="K186" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L186" s="44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M186" s="59"/>
       <c r="N186" s="59" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="O186" s="59"/>
       <c r="P186" s="59"/>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1299">
   <si>
     <t>NO.</t>
   </si>
@@ -3666,6 +3666,261 @@
   </si>
   <si>
     <t>edwin r zaragosa.jpg</t>
+  </si>
+  <si>
+    <t>liwaway a alcantara.jpg</t>
+  </si>
+  <si>
+    <t>joselito n alejandro.jpg</t>
+  </si>
+  <si>
+    <t>josefa victoria c apal.jpg</t>
+  </si>
+  <si>
+    <t>heremias b arce.jpg</t>
+  </si>
+  <si>
+    <t>danilo e badong.jpg</t>
+  </si>
+  <si>
+    <t>eric d baladad.jpg</t>
+  </si>
+  <si>
+    <t>marlene d balmes.jpg</t>
+  </si>
+  <si>
+    <t>eddie f balucanag.jpg</t>
+  </si>
+  <si>
+    <t>jonie s banquiray.jpg</t>
+  </si>
+  <si>
+    <t>ryan robin m basilio.jpg</t>
+  </si>
+  <si>
+    <t>jojit a binuya.jpg</t>
+  </si>
+  <si>
+    <t>catherine b bonaobra.jpg</t>
+  </si>
+  <si>
+    <t>josie s bordado.jpg</t>
+  </si>
+  <si>
+    <t>victorino m briones.jpg</t>
+  </si>
+  <si>
+    <t>irene v asiado.jpg</t>
+  </si>
+  <si>
+    <t>lydia a cabantog.jpg</t>
+  </si>
+  <si>
+    <t>windell m agravante.jpg</t>
+  </si>
+  <si>
+    <t>reynaldo a albos.jpg</t>
+  </si>
+  <si>
+    <t>renato r bismonte.jpg</t>
+  </si>
+  <si>
+    <t>michelle m ang.jpg</t>
+  </si>
+  <si>
+    <t>maurinita a angara.jpg</t>
+  </si>
+  <si>
+    <t>gerardo c averion.jpg</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>pablo v badiola.jpg</t>
+  </si>
+  <si>
+    <t>enrico m baesa.jpg</t>
+  </si>
+  <si>
+    <t>edwin q balong-angey.jpg</t>
+  </si>
+  <si>
+    <t>antonio i bare jr.jpg</t>
+  </si>
+  <si>
+    <t>alejandro victor b benitez jr.jpg</t>
+  </si>
+  <si>
+    <t>sarah evita c benito.jpg</t>
+  </si>
+  <si>
+    <t>marlaw r bigas.jpg</t>
+  </si>
+  <si>
+    <t>eduardo s bolalin.jpg</t>
+  </si>
+  <si>
+    <t>romeo a malaya.jpg</t>
+  </si>
+  <si>
+    <t>karen a mallari.jpg</t>
+  </si>
+  <si>
+    <t>jose m maloles.jpg</t>
+  </si>
+  <si>
+    <t>prospero c mamaril.jpg</t>
+  </si>
+  <si>
+    <t>juanita n monzon.jpg</t>
+  </si>
+  <si>
+    <t>rolando l oñas.jpg</t>
+  </si>
+  <si>
+    <t>nathaniel m osias.jpg</t>
+  </si>
+  <si>
+    <t>virgilion c mamaril.jpg</t>
+  </si>
+  <si>
+    <t>apolonio r manganaan.jpg</t>
+  </si>
+  <si>
+    <t>gregorio b manio jr.jpg</t>
+  </si>
+  <si>
+    <t>mariano b manuel jr.jpg</t>
+  </si>
+  <si>
+    <t>jocelyn v manzanares.jpg</t>
+  </si>
+  <si>
+    <t>rey christian m pacis.jpg</t>
+  </si>
+  <si>
+    <t>elena m maraggun.jpg</t>
+  </si>
+  <si>
+    <t>rey mark a maranan.jpg</t>
+  </si>
+  <si>
+    <t>jommel marayag.jpg</t>
+  </si>
+  <si>
+    <t>bienvenido a medrano jr.jpg</t>
+  </si>
+  <si>
+    <t>roderick b medroso.jpg</t>
+  </si>
+  <si>
+    <t>romeo g mendez.jpg</t>
+  </si>
+  <si>
+    <t>leah c mercado.jpg</t>
+  </si>
+  <si>
+    <t>rico d misal sr.jpg</t>
+  </si>
+  <si>
+    <t>ma.louiella v nazarrea.jpg</t>
+  </si>
+  <si>
+    <t>padrigon troy c catangui.jpg</t>
+  </si>
+  <si>
+    <t>russel p pagkaliwangan2.jpg</t>
+  </si>
+  <si>
+    <t>armando b palacio.jpg</t>
+  </si>
+  <si>
+    <t>jose s papa.jpg</t>
+  </si>
+  <si>
+    <t>juanito y pascual.jpg</t>
+  </si>
+  <si>
+    <t>reyadel l patungan.jpg</t>
+  </si>
+  <si>
+    <t>stefano c perez.jpg</t>
+  </si>
+  <si>
+    <t>florencio b pesigan.jpg</t>
+  </si>
+  <si>
+    <t>nolito v pinion.jpg</t>
+  </si>
+  <si>
+    <t>medardo o plantado.jpg</t>
+  </si>
+  <si>
+    <t>francisco m prieto.jpg</t>
+  </si>
+  <si>
+    <t>ronie p prieto.jpg</t>
+  </si>
+  <si>
+    <t>jose danilo a recio.jpg</t>
+  </si>
+  <si>
+    <t>reynaldo i recede.jpg</t>
+  </si>
+  <si>
+    <t>arturo r remonte.jpg</t>
+  </si>
+  <si>
+    <t>ricardo b ricafranca jr.jpg</t>
+  </si>
+  <si>
+    <t>gregorio b robosa jr.jpg</t>
+  </si>
+  <si>
+    <t>juana d samson.jpg</t>
+  </si>
+  <si>
+    <t>arnel a santos.jpg</t>
+  </si>
+  <si>
+    <t>mirasol m santos.jpg</t>
+  </si>
+  <si>
+    <t>romelyn p sison.jpg</t>
+  </si>
+  <si>
+    <t>maria cecilia c solteo.jpg</t>
+  </si>
+  <si>
+    <t>melanio f toling.jpg</t>
+  </si>
+  <si>
+    <t>fernandito  b torres.jpg</t>
+  </si>
+  <si>
+    <t>joel v tuliao.jpg</t>
+  </si>
+  <si>
+    <t>albert j valdehueza.jpg</t>
+  </si>
+  <si>
+    <t>domenador g velasquez.jpg</t>
+  </si>
+  <si>
+    <t>patricio o villasoto.jpg</t>
+  </si>
+  <si>
+    <t>celco g villota.jpg</t>
+  </si>
+  <si>
+    <t>ma.lourdes q wayan.jpg</t>
+  </si>
+  <si>
+    <t>mark lester b yanga.jpg</t>
+  </si>
+  <si>
+    <t>ronaldo s zarco.jpg</t>
   </si>
 </sst>
 </file>
@@ -4265,10 +4520,10 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="M117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="M160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomRight" activeCell="O176" sqref="O176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4751,9 @@
       <c r="L5" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="59" t="s">
+        <v>1230</v>
+      </c>
       <c r="N5" s="59" t="s">
         <v>1108</v>
       </c>
@@ -4536,7 +4793,9 @@
       <c r="L6" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="M6" s="59"/>
+      <c r="M6" s="59" t="s">
+        <v>1231</v>
+      </c>
       <c r="N6" s="59" t="s">
         <v>1109</v>
       </c>
@@ -4576,7 +4835,9 @@
       <c r="L7" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="59" t="s">
+        <v>1214</v>
+      </c>
       <c r="N7" s="59" t="s">
         <v>1110</v>
       </c>
@@ -4612,7 +4873,9 @@
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="45"/>
-      <c r="M8" s="59"/>
+      <c r="M8" s="59" t="s">
+        <v>1215</v>
+      </c>
       <c r="N8" s="59" t="s">
         <v>1059</v>
       </c>
@@ -4652,7 +4915,9 @@
       <c r="L9" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="M9" s="59"/>
+      <c r="M9" s="59" t="s">
+        <v>1233</v>
+      </c>
       <c r="N9" s="59" t="s">
         <v>1083</v>
       </c>
@@ -4692,7 +4957,9 @@
       <c r="L10" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="59" t="s">
+        <v>1234</v>
+      </c>
       <c r="N10" s="59" t="s">
         <v>1081</v>
       </c>
@@ -4732,7 +4999,9 @@
       <c r="L11" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="59" t="s">
+        <v>1216</v>
+      </c>
       <c r="N11" s="59" t="s">
         <v>1056</v>
       </c>
@@ -4772,7 +5041,9 @@
       <c r="L12" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="59" t="s">
+        <v>1217</v>
+      </c>
       <c r="N12" s="59" t="s">
         <v>1005</v>
       </c>
@@ -4812,7 +5083,9 @@
       <c r="L13" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="M13" s="59"/>
+      <c r="M13" s="59" t="s">
+        <v>1228</v>
+      </c>
       <c r="N13" s="59" t="s">
         <v>1150</v>
       </c>
@@ -4852,7 +5125,9 @@
       <c r="L14" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="59" t="s">
+        <v>1235</v>
+      </c>
       <c r="N14" s="59" t="s">
         <v>1151</v>
       </c>
@@ -4892,7 +5167,9 @@
       <c r="L15" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="M15" s="59"/>
+      <c r="M15" s="59" t="s">
+        <v>1237</v>
+      </c>
       <c r="N15" s="59" t="s">
         <v>1152</v>
       </c>
@@ -4932,7 +5209,9 @@
       <c r="L16" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="M16" s="59"/>
+      <c r="M16" s="59" t="s">
+        <v>1218</v>
+      </c>
       <c r="N16" s="59" t="s">
         <v>1153</v>
       </c>
@@ -4972,7 +5251,9 @@
       <c r="L17" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="M17" s="59"/>
+      <c r="M17" s="59" t="s">
+        <v>1238</v>
+      </c>
       <c r="N17" s="59" t="s">
         <v>1045</v>
       </c>
@@ -5012,7 +5293,9 @@
       <c r="L18" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="M18" s="59"/>
+      <c r="M18" s="59" t="s">
+        <v>1219</v>
+      </c>
       <c r="N18" s="59" t="s">
         <v>1047</v>
       </c>
@@ -5052,7 +5335,9 @@
       <c r="L19" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="M19" s="59"/>
+      <c r="M19" s="59" t="s">
+        <v>1220</v>
+      </c>
       <c r="N19" s="59" t="s">
         <v>1154</v>
       </c>
@@ -5092,7 +5377,9 @@
       <c r="L20" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="M20" s="59"/>
+      <c r="M20" s="59" t="s">
+        <v>1239</v>
+      </c>
       <c r="N20" s="59" t="s">
         <v>1155</v>
       </c>
@@ -5132,7 +5419,9 @@
       <c r="L21" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="59" t="s">
+        <v>1221</v>
+      </c>
       <c r="N21" s="59" t="s">
         <v>1035</v>
       </c>
@@ -5172,7 +5461,9 @@
       <c r="L22" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="M22" s="59"/>
+      <c r="M22" s="59" t="s">
+        <v>1222</v>
+      </c>
       <c r="N22" s="59" t="s">
         <v>1156</v>
       </c>
@@ -5212,7 +5503,9 @@
       <c r="L23" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="M23" s="59"/>
+      <c r="M23" s="59" t="s">
+        <v>1240</v>
+      </c>
       <c r="N23" s="59" t="s">
         <v>1157</v>
       </c>
@@ -5252,7 +5545,9 @@
       <c r="L24" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="M24" s="59"/>
+      <c r="M24" s="59" t="s">
+        <v>1223</v>
+      </c>
       <c r="N24" s="59" t="s">
         <v>1101</v>
       </c>
@@ -5292,7 +5587,9 @@
       <c r="L25" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="59" t="s">
+        <v>1241</v>
+      </c>
       <c r="N25" s="59" t="s">
         <v>1158</v>
       </c>
@@ -5328,7 +5625,9 @@
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="45"/>
-      <c r="M26" s="59"/>
+      <c r="M26" s="59" t="s">
+        <v>1242</v>
+      </c>
       <c r="N26" s="59" t="s">
         <v>1159</v>
       </c>
@@ -5368,7 +5667,9 @@
       <c r="L27" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="M27" s="59"/>
+      <c r="M27" s="59" t="s">
+        <v>1243</v>
+      </c>
       <c r="N27" s="59" t="s">
         <v>1160</v>
       </c>
@@ -5408,7 +5709,9 @@
       <c r="L28" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N28" s="59" t="s">
         <v>1161</v>
       </c>
@@ -5448,7 +5751,9 @@
       <c r="L29" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="M29" s="59"/>
+      <c r="M29" s="59" t="s">
+        <v>1224</v>
+      </c>
       <c r="N29" s="59" t="s">
         <v>1162</v>
       </c>
@@ -5488,7 +5793,9 @@
       <c r="L30" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="M30" s="59"/>
+      <c r="M30" s="59" t="s">
+        <v>1232</v>
+      </c>
       <c r="N30" s="59" t="s">
         <v>1163</v>
       </c>
@@ -5528,7 +5835,9 @@
       <c r="L31" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="M31" s="59"/>
+      <c r="M31" s="59" t="s">
+        <v>1244</v>
+      </c>
       <c r="N31" s="59" t="s">
         <v>1164</v>
       </c>
@@ -5568,7 +5877,9 @@
       <c r="L32" s="47" t="s">
         <v>518</v>
       </c>
-      <c r="M32" s="59"/>
+      <c r="M32" s="59" t="s">
+        <v>1225</v>
+      </c>
       <c r="N32" s="59" t="s">
         <v>1024</v>
       </c>
@@ -5608,7 +5919,9 @@
       <c r="L33" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="M33" s="59"/>
+      <c r="M33" s="59" t="s">
+        <v>1226</v>
+      </c>
       <c r="N33" s="59" t="s">
         <v>1061</v>
       </c>
@@ -5648,7 +5961,9 @@
       <c r="L34" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="M34" s="59"/>
+      <c r="M34" s="59" t="s">
+        <v>1227</v>
+      </c>
       <c r="N34" s="59" t="s">
         <v>1104</v>
       </c>
@@ -5688,7 +6003,9 @@
       <c r="L35" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="M35" s="59"/>
+      <c r="M35" s="59" t="s">
+        <v>1229</v>
+      </c>
       <c r="N35" s="59" t="s">
         <v>1073</v>
       </c>
@@ -5728,7 +6045,9 @@
       <c r="L36" s="47" t="s">
         <v>522</v>
       </c>
-      <c r="M36" s="59"/>
+      <c r="M36" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N36" s="59" t="s">
         <v>1165</v>
       </c>
@@ -5768,7 +6087,9 @@
       <c r="L37" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="M37" s="59"/>
+      <c r="M37" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N37" s="59" t="s">
         <v>1093</v>
       </c>
@@ -5808,7 +6129,9 @@
       <c r="L38" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="M38" s="59"/>
+      <c r="M38" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N38" s="59" t="s">
         <v>1167</v>
       </c>
@@ -5848,7 +6171,9 @@
       <c r="L39" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N39" s="59" t="s">
         <v>1020</v>
       </c>
@@ -5888,7 +6213,9 @@
       <c r="L40" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="M40" s="59"/>
+      <c r="M40" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N40" s="59" t="s">
         <v>1168</v>
       </c>
@@ -5928,7 +6255,9 @@
       <c r="L41" s="44" t="s">
         <v>527</v>
       </c>
-      <c r="M41" s="59"/>
+      <c r="M41" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N41" s="59" t="s">
         <v>1169</v>
       </c>
@@ -5968,7 +6297,9 @@
       <c r="L42" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="M42" s="59"/>
+      <c r="M42" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N42" s="59" t="s">
         <v>1051</v>
       </c>
@@ -6008,7 +6339,9 @@
       <c r="L43" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="M43" s="59"/>
+      <c r="M43" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N43" s="59" t="s">
         <v>1022</v>
       </c>
@@ -6044,7 +6377,9 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="45"/>
-      <c r="M44" s="59"/>
+      <c r="M44" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N44" s="59" t="s">
         <v>1023</v>
       </c>
@@ -6084,7 +6419,9 @@
       <c r="L45" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="M45" s="59"/>
+      <c r="M45" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N45" s="59" t="s">
         <v>1029</v>
       </c>
@@ -6124,7 +6461,9 @@
       <c r="L46" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="M46" s="59"/>
+      <c r="M46" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N46" s="59" t="s">
         <v>1170</v>
       </c>
@@ -6164,7 +6503,9 @@
       <c r="L47" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="M47" s="59"/>
+      <c r="M47" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N47" s="59" t="s">
         <v>1171</v>
       </c>
@@ -6204,7 +6545,9 @@
       <c r="L48" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="M48" s="59"/>
+      <c r="M48" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N48" s="59" t="s">
         <v>1172</v>
       </c>
@@ -6244,7 +6587,9 @@
       <c r="L49" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="M49" s="59"/>
+      <c r="M49" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N49" s="59" t="s">
         <v>1011</v>
       </c>
@@ -6284,7 +6629,9 @@
       <c r="L50" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="M50" s="59"/>
+      <c r="M50" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N50" s="59" t="s">
         <v>1065</v>
       </c>
@@ -6324,7 +6671,9 @@
       <c r="L51" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="M51" s="59"/>
+      <c r="M51" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N51" s="59"/>
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
@@ -6362,7 +6711,9 @@
       <c r="L52" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="M52" s="59"/>
+      <c r="M52" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N52" s="59" t="s">
         <v>1028</v>
       </c>
@@ -6402,7 +6753,9 @@
       <c r="L53" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="M53" s="59"/>
+      <c r="M53" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N53" s="59" t="s">
         <v>1006</v>
       </c>
@@ -6442,7 +6795,9 @@
       <c r="L54" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="M54" s="59"/>
+      <c r="M54" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N54" s="59" t="s">
         <v>1173</v>
       </c>
@@ -6482,7 +6837,9 @@
       <c r="L55" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="M55" s="59"/>
+      <c r="M55" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N55" s="59" t="s">
         <v>1174</v>
       </c>
@@ -6522,7 +6879,9 @@
       <c r="L56" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="M56" s="59"/>
+      <c r="M56" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N56" s="59" t="s">
         <v>1175</v>
       </c>
@@ -6562,7 +6921,9 @@
       <c r="L57" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="M57" s="59"/>
+      <c r="M57" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N57" s="59" t="s">
         <v>1097</v>
       </c>
@@ -6602,7 +6963,9 @@
       <c r="L58" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="M58" s="59"/>
+      <c r="M58" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N58" s="59" t="s">
         <v>1176</v>
       </c>
@@ -6642,7 +7005,9 @@
       <c r="L59" s="44" t="s">
         <v>544</v>
       </c>
-      <c r="M59" s="59"/>
+      <c r="M59" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N59" s="59" t="s">
         <v>1071</v>
       </c>
@@ -6682,7 +7047,9 @@
       <c r="L60" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="M60" s="59"/>
+      <c r="M60" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N60" s="59" t="s">
         <v>1016</v>
       </c>
@@ -6722,7 +7089,9 @@
       <c r="L61" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="M61" s="59"/>
+      <c r="M61" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N61" s="59" t="s">
         <v>1087</v>
       </c>
@@ -6762,7 +7131,9 @@
       <c r="L62" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="M62" s="59"/>
+      <c r="M62" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N62" s="59" t="s">
         <v>1177</v>
       </c>
@@ -6802,7 +7173,9 @@
       <c r="L63" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="M63" s="59"/>
+      <c r="M63" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N63" s="59" t="s">
         <v>1019</v>
       </c>
@@ -6842,7 +7215,9 @@
       <c r="L64" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="M64" s="59"/>
+      <c r="M64" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N64" s="59" t="s">
         <v>1178</v>
       </c>
@@ -6882,7 +7257,9 @@
       <c r="L65" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="M65" s="59"/>
+      <c r="M65" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N65" s="59" t="s">
         <v>1179</v>
       </c>
@@ -6922,7 +7299,9 @@
       <c r="L66" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="M66" s="59"/>
+      <c r="M66" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N66" s="59" t="s">
         <v>1038</v>
       </c>
@@ -6962,7 +7341,9 @@
       <c r="L67" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="M67" s="59"/>
+      <c r="M67" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N67" s="59" t="s">
         <v>1012</v>
       </c>
@@ -7002,7 +7383,9 @@
       <c r="L68" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="M68" s="59"/>
+      <c r="M68" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N68" s="59" t="s">
         <v>1064</v>
       </c>
@@ -7042,7 +7425,9 @@
       <c r="L69" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="M69" s="59"/>
+      <c r="M69" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N69" s="59" t="s">
         <v>1017</v>
       </c>
@@ -7082,7 +7467,9 @@
       <c r="L70" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="M70" s="59"/>
+      <c r="M70" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N70" s="59" t="s">
         <v>1180</v>
       </c>
@@ -7122,7 +7509,9 @@
       <c r="L71" s="44" t="s">
         <v>556</v>
       </c>
-      <c r="M71" s="59"/>
+      <c r="M71" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N71" s="59" t="s">
         <v>1181</v>
       </c>
@@ -7162,7 +7551,9 @@
       <c r="L72" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="M72" s="59"/>
+      <c r="M72" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N72" s="59" t="s">
         <v>1086</v>
       </c>
@@ -7202,7 +7593,9 @@
       <c r="L73" s="44" t="s">
         <v>558</v>
       </c>
-      <c r="M73" s="59"/>
+      <c r="M73" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N73" s="59" t="s">
         <v>1182</v>
       </c>
@@ -7242,7 +7635,9 @@
       <c r="L74" s="44" t="s">
         <v>559</v>
       </c>
-      <c r="M74" s="59"/>
+      <c r="M74" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N74" s="59" t="s">
         <v>1183</v>
       </c>
@@ -7282,7 +7677,9 @@
       <c r="L75" s="44" t="s">
         <v>560</v>
       </c>
-      <c r="M75" s="59"/>
+      <c r="M75" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N75" s="59" t="s">
         <v>1031</v>
       </c>
@@ -7322,7 +7719,9 @@
       <c r="L76" s="44" t="s">
         <v>561</v>
       </c>
-      <c r="M76" s="59"/>
+      <c r="M76" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N76" s="59" t="s">
         <v>1044</v>
       </c>
@@ -7362,7 +7761,9 @@
       <c r="L77" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="M77" s="59"/>
+      <c r="M77" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N77" s="59" t="s">
         <v>1092</v>
       </c>
@@ -7402,7 +7803,9 @@
       <c r="L78" s="44" t="s">
         <v>563</v>
       </c>
-      <c r="M78" s="59"/>
+      <c r="M78" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N78" s="59" t="s">
         <v>1184</v>
       </c>
@@ -7442,7 +7845,9 @@
       <c r="L79" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="M79" s="59"/>
+      <c r="M79" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N79" s="59" t="s">
         <v>1036</v>
       </c>
@@ -7482,7 +7887,9 @@
       <c r="L80" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="M80" s="59"/>
+      <c r="M80" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N80" s="59" t="s">
         <v>1185</v>
       </c>
@@ -7522,7 +7929,9 @@
       <c r="L81" s="44" t="s">
         <v>566</v>
       </c>
-      <c r="M81" s="59"/>
+      <c r="M81" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N81" s="59" t="s">
         <v>1069</v>
       </c>
@@ -7562,7 +7971,9 @@
       <c r="L82" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="M82" s="59"/>
+      <c r="M82" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N82" s="59" t="s">
         <v>1084</v>
       </c>
@@ -7602,7 +8013,9 @@
       <c r="L83" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="M83" s="59"/>
+      <c r="M83" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N83" s="59" t="s">
         <v>1186</v>
       </c>
@@ -7642,7 +8055,9 @@
       <c r="L84" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="M84" s="59"/>
+      <c r="M84" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N84" s="59" t="s">
         <v>1187</v>
       </c>
@@ -7682,7 +8097,9 @@
       <c r="L85" s="44" t="s">
         <v>570</v>
       </c>
-      <c r="M85" s="59"/>
+      <c r="M85" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N85" s="59" t="s">
         <v>1076</v>
       </c>
@@ -7722,7 +8139,9 @@
       <c r="L86" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="M86" s="59"/>
+      <c r="M86" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N86" s="59" t="s">
         <v>1188</v>
       </c>
@@ -7762,7 +8181,9 @@
       <c r="L87" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="M87" s="59"/>
+      <c r="M87" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N87" s="59" t="s">
         <v>1189</v>
       </c>
@@ -7802,7 +8223,9 @@
       <c r="L88" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="M88" s="59"/>
+      <c r="M88" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N88" s="59" t="s">
         <v>1190</v>
       </c>
@@ -7842,7 +8265,9 @@
       <c r="L89" s="44" t="s">
         <v>574</v>
       </c>
-      <c r="M89" s="59"/>
+      <c r="M89" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N89" s="59" t="s">
         <v>1191</v>
       </c>
@@ -7882,7 +8307,9 @@
       <c r="L90" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="M90" s="59"/>
+      <c r="M90" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N90" s="59" t="s">
         <v>1026</v>
       </c>
@@ -7922,7 +8349,9 @@
       <c r="L91" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="M91" s="59"/>
+      <c r="M91" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N91" s="59" t="s">
         <v>1103</v>
       </c>
@@ -7962,7 +8391,9 @@
       <c r="L92" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="M92" s="59"/>
+      <c r="M92" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N92" s="59" t="s">
         <v>1192</v>
       </c>
@@ -8002,7 +8433,9 @@
       <c r="L93" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="M93" s="59"/>
+      <c r="M93" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N93" s="59" t="s">
         <v>1078</v>
       </c>
@@ -8042,7 +8475,9 @@
       <c r="L94" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="M94" s="59"/>
+      <c r="M94" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N94" s="59" t="s">
         <v>1032</v>
       </c>
@@ -8082,7 +8517,9 @@
       <c r="L95" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="M95" s="59"/>
+      <c r="M95" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N95" s="59" t="s">
         <v>1193</v>
       </c>
@@ -8122,7 +8559,9 @@
       <c r="L96" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="M96" s="59"/>
+      <c r="M96" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N96" s="59" t="s">
         <v>1194</v>
       </c>
@@ -8162,7 +8601,9 @@
       <c r="L97" s="47" t="s">
         <v>582</v>
       </c>
-      <c r="M97" s="59"/>
+      <c r="M97" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N97" s="59" t="s">
         <v>1079</v>
       </c>
@@ -8202,7 +8643,9 @@
       <c r="L98" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="M98" s="59"/>
+      <c r="M98" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N98" s="59" t="s">
         <v>1072</v>
       </c>
@@ -8242,7 +8685,9 @@
       <c r="L99" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="M99" s="59"/>
+      <c r="M99" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N99" s="59"/>
       <c r="O99" s="59"/>
       <c r="P99" s="59"/>
@@ -8280,7 +8725,9 @@
       <c r="L100" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="M100" s="59"/>
+      <c r="M100" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N100" s="59" t="s">
         <v>1195</v>
       </c>
@@ -8320,7 +8767,9 @@
       <c r="L101" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="M101" s="59"/>
+      <c r="M101" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N101" s="59" t="s">
         <v>1054</v>
       </c>
@@ -8358,7 +8807,9 @@
       <c r="L102" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="M102" s="59"/>
+      <c r="M102" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N102" s="59" t="s">
         <v>1025</v>
       </c>
@@ -8398,7 +8849,9 @@
       <c r="L103" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="M103" s="59"/>
+      <c r="M103" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N103" s="59" t="s">
         <v>1113</v>
       </c>
@@ -8438,7 +8891,9 @@
       <c r="L104" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="M104" s="59"/>
+      <c r="M104" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N104" s="59" t="s">
         <v>1057</v>
       </c>
@@ -8478,7 +8933,9 @@
       <c r="L105" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="M105" s="59"/>
+      <c r="M105" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N105" s="59" t="s">
         <v>1053</v>
       </c>
@@ -8518,7 +8975,9 @@
       <c r="L106" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="M106" s="59"/>
+      <c r="M106" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N106" s="59" t="s">
         <v>1077</v>
       </c>
@@ -8558,7 +9017,9 @@
       <c r="L107" s="44" t="s">
         <v>592</v>
       </c>
-      <c r="M107" s="59"/>
+      <c r="M107" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N107" s="59" t="s">
         <v>1106</v>
       </c>
@@ -8598,7 +9059,9 @@
       <c r="L108" s="44" t="s">
         <v>593</v>
       </c>
-      <c r="M108" s="59"/>
+      <c r="M108" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N108" s="59" t="s">
         <v>1068</v>
       </c>
@@ -8638,7 +9101,9 @@
       <c r="L109" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="M109" s="59"/>
+      <c r="M109" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N109" s="59" t="s">
         <v>1095</v>
       </c>
@@ -8678,7 +9143,9 @@
       <c r="L110" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="M110" s="59"/>
+      <c r="M110" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N110" s="59" t="s">
         <v>1008</v>
       </c>
@@ -8718,7 +9185,9 @@
       <c r="L111" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="M111" s="59"/>
+      <c r="M111" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N111" s="59" t="s">
         <v>1066</v>
       </c>
@@ -8758,7 +9227,9 @@
       <c r="L112" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="M112" s="59"/>
+      <c r="M112" s="59" t="s">
+        <v>1245</v>
+      </c>
       <c r="N112" s="59" t="s">
         <v>1116</v>
       </c>
@@ -8798,7 +9269,9 @@
       <c r="L113" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="M113" s="59"/>
+      <c r="M113" s="59" t="s">
+        <v>1246</v>
+      </c>
       <c r="N113" s="59" t="s">
         <v>1114</v>
       </c>
@@ -8838,7 +9311,9 @@
       <c r="L114" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="M114" s="59"/>
+      <c r="M114" s="59" t="s">
+        <v>1247</v>
+      </c>
       <c r="N114" s="59" t="s">
         <v>1115</v>
       </c>
@@ -8878,7 +9353,9 @@
       <c r="L115" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="M115" s="59"/>
+      <c r="M115" s="59" t="s">
+        <v>1248</v>
+      </c>
       <c r="N115" s="59" t="s">
         <v>1088</v>
       </c>
@@ -8918,7 +9395,9 @@
       <c r="L116" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="M116" s="59"/>
+      <c r="M116" s="59" t="s">
+        <v>1252</v>
+      </c>
       <c r="N116" s="59" t="s">
         <v>1105</v>
       </c>
@@ -8958,7 +9437,9 @@
       <c r="L117" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="M117" s="59"/>
+      <c r="M117" s="59" t="s">
+        <v>1253</v>
+      </c>
       <c r="N117" s="59"/>
       <c r="O117" s="59"/>
       <c r="P117" s="59"/>
@@ -8996,7 +9477,9 @@
       <c r="L118" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="M118" s="59"/>
+      <c r="M118" s="59" t="s">
+        <v>1254</v>
+      </c>
       <c r="N118" s="59" t="s">
         <v>1118</v>
       </c>
@@ -9036,7 +9519,9 @@
       <c r="L119" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="M119" s="59"/>
+      <c r="M119" s="59" t="s">
+        <v>1255</v>
+      </c>
       <c r="N119" s="59" t="s">
         <v>1120</v>
       </c>
@@ -9076,7 +9561,9 @@
       <c r="L120" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="M120" s="59"/>
+      <c r="M120" s="59" t="s">
+        <v>1256</v>
+      </c>
       <c r="N120" s="59" t="s">
         <v>1009</v>
       </c>
@@ -9116,7 +9603,9 @@
       <c r="L121" s="47" t="s">
         <v>605</v>
       </c>
-      <c r="M121" s="59"/>
+      <c r="M121" s="59" t="s">
+        <v>1258</v>
+      </c>
       <c r="N121" s="59" t="s">
         <v>1041</v>
       </c>
@@ -9156,7 +9645,9 @@
       <c r="L122" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="M122" s="59"/>
+      <c r="M122" s="59" t="s">
+        <v>1259</v>
+      </c>
       <c r="N122" s="59" t="s">
         <v>1196</v>
       </c>
@@ -9196,7 +9687,9 @@
       <c r="L123" s="44" t="s">
         <v>607</v>
       </c>
-      <c r="M123" s="59"/>
+      <c r="M123" s="59" t="s">
+        <v>1260</v>
+      </c>
       <c r="N123" s="59" t="s">
         <v>1121</v>
       </c>
@@ -9236,7 +9729,9 @@
       <c r="L124" s="44" t="s">
         <v>608</v>
       </c>
-      <c r="M124" s="59"/>
+      <c r="M124" s="59" t="s">
+        <v>1261</v>
+      </c>
       <c r="N124" s="59" t="s">
         <v>1122</v>
       </c>
@@ -9276,7 +9771,9 @@
       <c r="L125" s="44" t="s">
         <v>609</v>
       </c>
-      <c r="M125" s="59"/>
+      <c r="M125" s="59" t="s">
+        <v>1262</v>
+      </c>
       <c r="N125" s="59" t="s">
         <v>1094</v>
       </c>
@@ -9316,7 +9813,9 @@
       <c r="L126" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="M126" s="59"/>
+      <c r="M126" s="59" t="s">
+        <v>1263</v>
+      </c>
       <c r="N126" s="59" t="s">
         <v>1099</v>
       </c>
@@ -9356,7 +9855,9 @@
       <c r="L127" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="M127" s="59"/>
+      <c r="M127" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N127" s="59" t="s">
         <v>1018</v>
       </c>
@@ -9396,7 +9897,9 @@
       <c r="L128" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="M128" s="59"/>
+      <c r="M128" s="59" t="s">
+        <v>1264</v>
+      </c>
       <c r="N128" s="59" t="s">
         <v>1067</v>
       </c>
@@ -9476,7 +9979,9 @@
       <c r="L130" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="M130" s="59"/>
+      <c r="M130" s="59" t="s">
+        <v>1265</v>
+      </c>
       <c r="N130" s="59" t="s">
         <v>1123</v>
       </c>
@@ -9516,7 +10021,9 @@
       <c r="L131" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="M131" s="59"/>
+      <c r="M131" s="59" t="s">
+        <v>1249</v>
+      </c>
       <c r="N131" s="59" t="s">
         <v>1063</v>
       </c>
@@ -9556,7 +10063,9 @@
       <c r="L132" s="44" t="s">
         <v>615</v>
       </c>
-      <c r="M132" s="59"/>
+      <c r="M132" s="59" t="s">
+        <v>1266</v>
+      </c>
       <c r="N132" s="59" t="s">
         <v>1074</v>
       </c>
@@ -9596,7 +10105,9 @@
       <c r="L133" s="44" t="s">
         <v>616</v>
       </c>
-      <c r="M133" s="59"/>
+      <c r="M133" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N133" s="59" t="s">
         <v>1124</v>
       </c>
@@ -9720,7 +10231,9 @@
       <c r="L136" s="44" t="s">
         <v>619</v>
       </c>
-      <c r="M136" s="59"/>
+      <c r="M136" s="59" t="s">
+        <v>1250</v>
+      </c>
       <c r="N136" s="59" t="s">
         <v>1096</v>
       </c>
@@ -9760,7 +10273,9 @@
       <c r="L137" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="M137" s="59"/>
+      <c r="M137" s="59" t="s">
+        <v>1251</v>
+      </c>
       <c r="N137" s="59" t="s">
         <v>1125</v>
       </c>
@@ -9800,7 +10315,9 @@
       <c r="L138" s="44" t="s">
         <v>621</v>
       </c>
-      <c r="M138" s="59"/>
+      <c r="M138" s="59" t="s">
+        <v>1257</v>
+      </c>
       <c r="N138" s="59" t="s">
         <v>1089</v>
       </c>
@@ -9840,7 +10357,9 @@
       <c r="L139" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="M139" s="59"/>
+      <c r="M139" s="59" t="s">
+        <v>1267</v>
+      </c>
       <c r="N139" s="59" t="s">
         <v>1126</v>
       </c>
@@ -9880,7 +10399,9 @@
       <c r="L140" s="44" t="s">
         <v>623</v>
       </c>
-      <c r="M140" s="59"/>
+      <c r="M140" s="59" t="s">
+        <v>1268</v>
+      </c>
       <c r="N140" s="59" t="s">
         <v>1127</v>
       </c>
@@ -9920,7 +10441,9 @@
       <c r="L141" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="M141" s="59"/>
+      <c r="M141" s="59" t="s">
+        <v>1269</v>
+      </c>
       <c r="N141" s="59" t="s">
         <v>1128</v>
       </c>
@@ -10002,7 +10525,9 @@
       <c r="L143" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M143" s="59"/>
+      <c r="M143" s="59" t="s">
+        <v>1270</v>
+      </c>
       <c r="N143" s="59" t="s">
         <v>1130</v>
       </c>
@@ -10042,7 +10567,9 @@
       <c r="L144" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="M144" s="59"/>
+      <c r="M144" s="59" t="s">
+        <v>1271</v>
+      </c>
       <c r="N144" s="59" t="s">
         <v>1131</v>
       </c>
@@ -10082,7 +10609,9 @@
       <c r="L145" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="M145" s="59"/>
+      <c r="M145" s="59" t="s">
+        <v>1272</v>
+      </c>
       <c r="N145" s="59" t="s">
         <v>1090</v>
       </c>
@@ -10164,7 +10693,9 @@
       <c r="L147" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="M147" s="59"/>
+      <c r="M147" s="59" t="s">
+        <v>1273</v>
+      </c>
       <c r="N147" s="59" t="s">
         <v>1039</v>
       </c>
@@ -10204,7 +10735,9 @@
       <c r="L148" s="44" t="s">
         <v>631</v>
       </c>
-      <c r="M148" s="59"/>
+      <c r="M148" s="59" t="s">
+        <v>1274</v>
+      </c>
       <c r="N148" s="59" t="s">
         <v>1132</v>
       </c>
@@ -10244,7 +10777,9 @@
       <c r="L149" s="44" t="s">
         <v>632</v>
       </c>
-      <c r="M149" s="59"/>
+      <c r="M149" s="59" t="s">
+        <v>1275</v>
+      </c>
       <c r="N149" s="59" t="s">
         <v>1133</v>
       </c>
@@ -10284,7 +10819,9 @@
       <c r="L150" s="44" t="s">
         <v>633</v>
       </c>
-      <c r="M150" s="59"/>
+      <c r="M150" s="59" t="s">
+        <v>1276</v>
+      </c>
       <c r="N150" s="59" t="s">
         <v>1082</v>
       </c>
@@ -10324,7 +10861,9 @@
       <c r="L151" s="44" t="s">
         <v>634</v>
       </c>
-      <c r="M151" s="59"/>
+      <c r="M151" s="59" t="s">
+        <v>1277</v>
+      </c>
       <c r="N151" s="59" t="s">
         <v>1134</v>
       </c>
@@ -10364,7 +10903,9 @@
       <c r="L152" s="44" t="s">
         <v>635</v>
       </c>
-      <c r="M152" s="59"/>
+      <c r="M152" s="59" t="s">
+        <v>1278</v>
+      </c>
       <c r="N152" s="59" t="s">
         <v>1135</v>
       </c>
@@ -10488,7 +11029,9 @@
       <c r="L155" s="44" t="s">
         <v>638</v>
       </c>
-      <c r="M155" s="59"/>
+      <c r="M155" s="59" t="s">
+        <v>1278</v>
+      </c>
       <c r="N155" s="59" t="s">
         <v>1137</v>
       </c>
@@ -10528,7 +11071,9 @@
       <c r="L156" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="M156" s="59"/>
+      <c r="M156" s="59" t="s">
+        <v>1279</v>
+      </c>
       <c r="N156" s="59" t="s">
         <v>1055</v>
       </c>
@@ -10568,7 +11113,9 @@
       <c r="L157" s="44" t="s">
         <v>640</v>
       </c>
-      <c r="M157" s="59"/>
+      <c r="M157" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N157" s="59" t="s">
         <v>1048</v>
       </c>
@@ -10608,7 +11155,9 @@
       <c r="L158" s="44" t="s">
         <v>641</v>
       </c>
-      <c r="M158" s="59"/>
+      <c r="M158" s="59" t="s">
+        <v>1280</v>
+      </c>
       <c r="N158" s="59" t="s">
         <v>1138</v>
       </c>
@@ -10732,7 +11281,9 @@
       <c r="L161" s="44" t="s">
         <v>644</v>
       </c>
-      <c r="M161" s="59"/>
+      <c r="M161" s="59" t="s">
+        <v>1236</v>
+      </c>
       <c r="N161" s="59" t="s">
         <v>1007</v>
       </c>
@@ -10772,7 +11323,9 @@
       <c r="L162" s="44" t="s">
         <v>645</v>
       </c>
-      <c r="M162" s="59"/>
+      <c r="M162" s="59" t="s">
+        <v>1281</v>
+      </c>
       <c r="N162" s="59" t="s">
         <v>1139</v>
       </c>
@@ -10812,7 +11365,9 @@
       <c r="L163" s="44" t="s">
         <v>646</v>
       </c>
-      <c r="M163" s="59"/>
+      <c r="M163" s="59" t="s">
+        <v>1282</v>
+      </c>
       <c r="N163" s="59" t="s">
         <v>1091</v>
       </c>
@@ -10852,7 +11407,9 @@
       <c r="L164" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="M164" s="59"/>
+      <c r="M164" s="59" t="s">
+        <v>1283</v>
+      </c>
       <c r="N164" s="59" t="s">
         <v>1003</v>
       </c>
@@ -10934,7 +11491,9 @@
       <c r="L166" s="44" t="s">
         <v>649</v>
       </c>
-      <c r="M166" s="59"/>
+      <c r="M166" s="59" t="s">
+        <v>1284</v>
+      </c>
       <c r="N166" s="59" t="s">
         <v>1062</v>
       </c>
@@ -11016,7 +11575,9 @@
       <c r="L168" s="44" t="s">
         <v>651</v>
       </c>
-      <c r="M168" s="59"/>
+      <c r="M168" s="59" t="s">
+        <v>1285</v>
+      </c>
       <c r="N168" s="59" t="s">
         <v>1140</v>
       </c>
@@ -11056,7 +11617,9 @@
       <c r="L169" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="M169" s="59"/>
+      <c r="M169" s="59" t="s">
+        <v>1286</v>
+      </c>
       <c r="N169" s="59" t="s">
         <v>1085</v>
       </c>
@@ -11138,7 +11701,9 @@
       <c r="L171" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="M171" s="59"/>
+      <c r="M171" s="59" t="s">
+        <v>1287</v>
+      </c>
       <c r="N171" s="59" t="s">
         <v>1098</v>
       </c>
@@ -11178,7 +11743,9 @@
       <c r="L172" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="M172" s="59"/>
+      <c r="M172" s="59" t="s">
+        <v>1288</v>
+      </c>
       <c r="N172" s="59" t="s">
         <v>1141</v>
       </c>
@@ -11260,7 +11827,9 @@
       <c r="L174" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="M174" s="59"/>
+      <c r="M174" s="59" t="s">
+        <v>1289</v>
+      </c>
       <c r="N174" s="59" t="s">
         <v>1142</v>
       </c>
@@ -11300,7 +11869,9 @@
       <c r="L175" s="44" t="s">
         <v>658</v>
       </c>
-      <c r="M175" s="59"/>
+      <c r="M175" s="59" t="s">
+        <v>1290</v>
+      </c>
       <c r="N175" s="59" t="s">
         <v>1143</v>
       </c>
@@ -11340,7 +11911,9 @@
       <c r="L176" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="M176" s="59"/>
+      <c r="M176" s="59" t="s">
+        <v>1291</v>
+      </c>
       <c r="N176" s="59" t="s">
         <v>1010</v>
       </c>
@@ -11380,7 +11953,9 @@
       <c r="L177" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="M177" s="59"/>
+      <c r="M177" s="59" t="s">
+        <v>1292</v>
+      </c>
       <c r="N177" s="59" t="s">
         <v>1144</v>
       </c>
@@ -11504,7 +12079,9 @@
       <c r="L180" s="44" t="s">
         <v>663</v>
       </c>
-      <c r="M180" s="59"/>
+      <c r="M180" s="59" t="s">
+        <v>1293</v>
+      </c>
       <c r="N180" s="59" t="s">
         <v>1033</v>
       </c>
@@ -11544,7 +12121,9 @@
       <c r="L181" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="M181" s="59"/>
+      <c r="M181" s="59" t="s">
+        <v>1294</v>
+      </c>
       <c r="N181" s="59" t="s">
         <v>1148</v>
       </c>
@@ -11584,7 +12163,9 @@
       <c r="L182" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="M182" s="59"/>
+      <c r="M182" s="59" t="s">
+        <v>1295</v>
+      </c>
       <c r="N182" s="59" t="s">
         <v>1149</v>
       </c>
@@ -11624,7 +12205,9 @@
       <c r="L183" s="44" t="s">
         <v>666</v>
       </c>
-      <c r="M183" s="59"/>
+      <c r="M183" s="59" t="s">
+        <v>1296</v>
+      </c>
       <c r="N183" s="59" t="s">
         <v>1075</v>
       </c>
@@ -11664,7 +12247,9 @@
       <c r="L184" s="44" t="s">
         <v>667</v>
       </c>
-      <c r="M184" s="59"/>
+      <c r="M184" s="59" t="s">
+        <v>1297</v>
+      </c>
       <c r="N184" s="59" t="s">
         <v>1080</v>
       </c>
@@ -11746,7 +12331,9 @@
       <c r="L186" s="44" t="s">
         <v>669</v>
       </c>
-      <c r="M186" s="59"/>
+      <c r="M186" s="59" t="s">
+        <v>1298</v>
+      </c>
       <c r="N186" s="59" t="s">
         <v>1100</v>
       </c>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1302">
   <si>
     <t>NO.</t>
   </si>
@@ -3921,6 +3921,15 @@
   </si>
   <si>
     <t>ronaldo s zarco.jpg</t>
+  </si>
+  <si>
+    <t>allan s caber.jpg</t>
+  </si>
+  <si>
+    <t>rizalina i caincol.jpg</t>
+  </si>
+  <si>
+    <t>romeo a caincol sr.jpg</t>
   </si>
 </sst>
 </file>
@@ -4520,10 +4529,10 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="M160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="M36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O176" sqref="O176"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6046,7 +6055,7 @@
         <v>522</v>
       </c>
       <c r="M36" s="59" t="s">
-        <v>1236</v>
+        <v>1299</v>
       </c>
       <c r="N36" s="59" t="s">
         <v>1165</v>
@@ -6088,7 +6097,7 @@
         <v>523</v>
       </c>
       <c r="M37" s="59" t="s">
-        <v>1236</v>
+        <v>1300</v>
       </c>
       <c r="N37" s="59" t="s">
         <v>1093</v>
@@ -6130,7 +6139,7 @@
         <v>524</v>
       </c>
       <c r="M38" s="59" t="s">
-        <v>1236</v>
+        <v>1301</v>
       </c>
       <c r="N38" s="59" t="s">
         <v>1167</v>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter-Dennis\Documents\GitHub\PC-Troubleshooting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DCenter Laptop\Documents\GitHub\PC-Troubleshooting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1224">
   <si>
     <t>NO.</t>
   </si>
@@ -3666,6 +3666,36 @@
   </si>
   <si>
     <t>edwin r zaragosa.jpg</t>
+  </si>
+  <si>
+    <t>windell m agravante.jpg</t>
+  </si>
+  <si>
+    <t>reynaldo a albos.jpg</t>
+  </si>
+  <si>
+    <t>joseline a geronimo.jpg</t>
+  </si>
+  <si>
+    <t>ricarte r galope jr.jpg</t>
+  </si>
+  <si>
+    <t>teresita t garcia.jpg</t>
+  </si>
+  <si>
+    <t>ranulfo b grajo.jpg</t>
+  </si>
+  <si>
+    <t>miguel n gavino.jpg</t>
+  </si>
+  <si>
+    <t>jerson b geronimo.jpg</t>
+  </si>
+  <si>
+    <t>van j insa.jpg</t>
+  </si>
+  <si>
+    <t>rolando h luna.jpg</t>
   </si>
 </sst>
 </file>
@@ -4265,10 +4295,10 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="M117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="D180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomRight" activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,7 +4526,9 @@
       <c r="L5" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="59" t="s">
+        <v>1214</v>
+      </c>
       <c r="N5" s="59" t="s">
         <v>1108</v>
       </c>
@@ -4536,7 +4568,9 @@
       <c r="L6" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="M6" s="59"/>
+      <c r="M6" s="59" t="s">
+        <v>1215</v>
+      </c>
       <c r="N6" s="59" t="s">
         <v>1109</v>
       </c>
@@ -7362,7 +7396,9 @@
       <c r="L77" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="M77" s="59"/>
+      <c r="M77" s="59" t="s">
+        <v>1217</v>
+      </c>
       <c r="N77" s="59" t="s">
         <v>1092</v>
       </c>
@@ -7482,7 +7518,9 @@
       <c r="L80" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="M80" s="59"/>
+      <c r="M80" s="59" t="s">
+        <v>1218</v>
+      </c>
       <c r="N80" s="59" t="s">
         <v>1185</v>
       </c>
@@ -7562,7 +7600,9 @@
       <c r="L82" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="M82" s="59"/>
+      <c r="M82" s="59" t="s">
+        <v>1220</v>
+      </c>
       <c r="N82" s="59" t="s">
         <v>1084</v>
       </c>
@@ -7602,7 +7642,9 @@
       <c r="L83" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="M83" s="59"/>
+      <c r="M83" s="59" t="s">
+        <v>1221</v>
+      </c>
       <c r="N83" s="59" t="s">
         <v>1186</v>
       </c>
@@ -7642,7 +7684,9 @@
       <c r="L84" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="M84" s="59"/>
+      <c r="M84" s="59" t="s">
+        <v>1216</v>
+      </c>
       <c r="N84" s="59" t="s">
         <v>1187</v>
       </c>
@@ -7722,7 +7766,9 @@
       <c r="L86" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="M86" s="59"/>
+      <c r="M86" s="59" t="s">
+        <v>1219</v>
+      </c>
       <c r="N86" s="59" t="s">
         <v>1188</v>
       </c>
@@ -7922,7 +7968,9 @@
       <c r="L91" s="47" t="s">
         <v>576</v>
       </c>
-      <c r="M91" s="59"/>
+      <c r="M91" s="59" t="s">
+        <v>1222</v>
+      </c>
       <c r="N91" s="59" t="s">
         <v>1103</v>
       </c>
@@ -8638,7 +8686,9 @@
       <c r="L109" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="M109" s="59"/>
+      <c r="M109" s="59" t="s">
+        <v>1223</v>
+      </c>
       <c r="N109" s="59" t="s">
         <v>1095</v>
       </c>

--- a/ATM ID Permanent database.xlsx
+++ b/ATM ID Permanent database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="1302">
   <si>
     <t>NO.</t>
   </si>
@@ -4529,10 +4529,10 @@
   <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="M36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="8" topLeftCell="M24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6180,9 +6180,7 @@
       <c r="L39" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="M39" s="59" t="s">
-        <v>1236</v>
-      </c>
+      <c r="M39" s="59"/>
       <c r="N39" s="59" t="s">
         <v>1020</v>
       </c>
